--- a/tunisia_exp_regression_and_montecarlo_covid19.xlsx
+++ b/tunisia_exp_regression_and_montecarlo_covid19.xlsx
@@ -2515,31 +2515,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.1</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.8</c:v>
+                  <c:v>31.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.6</c:v>
+                  <c:v>20.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -2630,34 +2630,34 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.4</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.9</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.7</c:v>
+                  <c:v>71.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.30000000000001</c:v>
+                  <c:v>92.19999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.00000000000001</c:v>
+                  <c:v>99.29999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.0</c:v>
+                  <c:v>99.89999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>99.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>99.99999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,7 +5612,7 @@
   <dimension ref="A2:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(F5,G5)</f>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -6812,39 +6812,39 @@
       </c>
       <c r="M5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;150")-COUNTIF(C34:C1033,"&lt;100")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;200")-COUNTIF(C34:C1033,"&lt;150")</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;250")-COUNTIF(C34:C1033,"&lt;200")</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;300")-COUNTIF(C34:C1033,"&lt;250")</f>
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;350")-COUNTIF(C34:C1033,"&lt;300")</f>
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="R5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;400")-COUNTIF(C34:C1033,"&lt;350")</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;450")-COUNTIF(C34:C1033,"&lt;400")</f>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="T5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;500")-COUNTIF(C34:C1033,"&lt;450")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;550")-COUNTIF(C34:C1033,"&lt;500")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;600")-COUNTIF(C34:C1033,"&lt;550")</f>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H10" ca="1" si="2">RANDBETWEEN(F6,G6)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -6876,39 +6876,39 @@
       </c>
       <c r="M6">
         <f t="shared" ref="M6:V6" ca="1" si="3">M5*100/1000</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="3"/>
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="3"/>
-        <v>29.8</v>
+        <v>31.4</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="3"/>
-        <v>20.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="3"/>
@@ -6940,43 +6940,43 @@
       </c>
       <c r="M7">
         <f ca="1">L7+M6</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:V7" ca="1" si="4">M7+N6</f>
-        <v>3.3</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>14.399999999999999</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="4"/>
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="4"/>
-        <v>70.7</v>
+        <v>71.8</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="4"/>
-        <v>91.300000000000011</v>
+        <v>92.199999999999989</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="4"/>
-        <v>99.000000000000014</v>
+        <v>99.299999999999983</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="4"/>
-        <v>100.00000000000001</v>
+        <v>99.899999999999977</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="4"/>
-        <v>100.00000000000001</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="4"/>
-        <v>100.00000000000001</v>
+        <v>99.999999999999972</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
@@ -7027,14 +7027,14 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="H11">
         <f ca="1">SUM(H5:H10)</f>
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="C34">
         <f ca="1">H11</f>
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="C35">
         <f t="dataTable" ref="C35:C1033" dt2D="0" dtr="0" r1="A34" ca="1"/>
-        <v>220</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -7068,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>249</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
@@ -7076,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>241</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -7084,7 +7084,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>381</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -7092,7 +7092,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>339</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -7100,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -7108,7 +7108,7 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>352</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
@@ -7116,7 +7116,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>299</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -7124,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>402</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>359</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -7140,7 +7140,7 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -7148,7 +7148,7 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>267</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -7156,7 +7156,7 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>309</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -7164,7 +7164,7 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>380</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -7172,7 +7172,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -7180,7 +7180,7 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>364</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -7188,7 +7188,7 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -7196,7 +7196,7 @@
         <v>19</v>
       </c>
       <c r="C52">
-        <v>253</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -7212,7 +7212,7 @@
         <v>21</v>
       </c>
       <c r="C54">
-        <v>254</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
@@ -7220,7 +7220,7 @@
         <v>22</v>
       </c>
       <c r="C55">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
@@ -7228,7 +7228,7 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>248</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -7244,7 +7244,7 @@
         <v>25</v>
       </c>
       <c r="C58">
-        <v>359</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
         <v>26</v>
       </c>
       <c r="C59">
-        <v>287</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
@@ -7260,7 +7260,7 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>390</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
@@ -7268,7 +7268,7 @@
         <v>28</v>
       </c>
       <c r="C61">
-        <v>428</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
@@ -7276,7 +7276,7 @@
         <v>29</v>
       </c>
       <c r="C62">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
         <v>30</v>
       </c>
       <c r="C63">
-        <v>436</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
@@ -7292,7 +7292,7 @@
         <v>31</v>
       </c>
       <c r="C64">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -7300,7 +7300,7 @@
         <v>32</v>
       </c>
       <c r="C65">
-        <v>215</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
         <v>33</v>
       </c>
       <c r="C66">
-        <v>430</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
@@ -7316,7 +7316,7 @@
         <v>34</v>
       </c>
       <c r="C67">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
@@ -7324,7 +7324,7 @@
         <v>35</v>
       </c>
       <c r="C68">
-        <v>247</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
@@ -7332,7 +7332,7 @@
         <v>36</v>
       </c>
       <c r="C69">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
@@ -7340,7 +7340,7 @@
         <v>37</v>
       </c>
       <c r="C70">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
@@ -7348,7 +7348,7 @@
         <v>38</v>
       </c>
       <c r="C71">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="C72">
-        <v>259</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
@@ -7364,7 +7364,7 @@
         <v>40</v>
       </c>
       <c r="C73">
-        <v>404</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
@@ -7372,7 +7372,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -7380,7 +7380,7 @@
         <v>42</v>
       </c>
       <c r="C75">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
@@ -7388,7 +7388,7 @@
         <v>43</v>
       </c>
       <c r="C76">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
@@ -7396,7 +7396,7 @@
         <v>44</v>
       </c>
       <c r="C77">
-        <v>365</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -7404,7 +7404,7 @@
         <v>45</v>
       </c>
       <c r="C78">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
@@ -7412,7 +7412,7 @@
         <v>46</v>
       </c>
       <c r="C79">
-        <v>356</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
@@ -7420,7 +7420,7 @@
         <v>47</v>
       </c>
       <c r="C80">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>48</v>
       </c>
       <c r="C81">
-        <v>204</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
@@ -7436,7 +7436,7 @@
         <v>49</v>
       </c>
       <c r="C82">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
         <v>50</v>
       </c>
       <c r="C83">
-        <v>419</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -7452,7 +7452,7 @@
         <v>51</v>
       </c>
       <c r="C84">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
         <v>52</v>
       </c>
       <c r="C85">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
@@ -7468,7 +7468,7 @@
         <v>53</v>
       </c>
       <c r="C86">
-        <v>372</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
@@ -7476,7 +7476,7 @@
         <v>54</v>
       </c>
       <c r="C87">
-        <v>229</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -7484,7 +7484,7 @@
         <v>55</v>
       </c>
       <c r="C88">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
         <v>56</v>
       </c>
       <c r="C89">
-        <v>401</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
@@ -7500,7 +7500,7 @@
         <v>57</v>
       </c>
       <c r="C90">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
@@ -7508,7 +7508,7 @@
         <v>58</v>
       </c>
       <c r="C91">
-        <v>315</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
@@ -7516,7 +7516,7 @@
         <v>59</v>
       </c>
       <c r="C92">
-        <v>383</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -7524,7 +7524,7 @@
         <v>60</v>
       </c>
       <c r="C93">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
@@ -7532,7 +7532,7 @@
         <v>61</v>
       </c>
       <c r="C94">
-        <v>186</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
@@ -7540,7 +7540,7 @@
         <v>62</v>
       </c>
       <c r="C95">
-        <v>291</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
@@ -7548,7 +7548,7 @@
         <v>63</v>
       </c>
       <c r="C96">
-        <v>285</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -7556,7 +7556,7 @@
         <v>64</v>
       </c>
       <c r="C97">
-        <v>298</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
@@ -7564,7 +7564,7 @@
         <v>65</v>
       </c>
       <c r="C98">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
@@ -7572,7 +7572,7 @@
         <v>66</v>
       </c>
       <c r="C99">
-        <v>322</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
@@ -7580,7 +7580,7 @@
         <v>67</v>
       </c>
       <c r="C100">
-        <v>246</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
@@ -7588,7 +7588,7 @@
         <v>68</v>
       </c>
       <c r="C101">
-        <v>233</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
@@ -7596,7 +7596,7 @@
         <v>69</v>
       </c>
       <c r="C102">
-        <v>248</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>70</v>
       </c>
       <c r="C103">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
@@ -7612,7 +7612,7 @@
         <v>71</v>
       </c>
       <c r="C104">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
@@ -7620,7 +7620,7 @@
         <v>72</v>
       </c>
       <c r="C105">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
@@ -7628,7 +7628,7 @@
         <v>73</v>
       </c>
       <c r="C106">
-        <v>241</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
@@ -7636,7 +7636,7 @@
         <v>74</v>
       </c>
       <c r="C107">
-        <v>317</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
@@ -7644,7 +7644,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>238</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
@@ -7652,7 +7652,7 @@
         <v>76</v>
       </c>
       <c r="C109">
-        <v>278</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
@@ -7660,7 +7660,7 @@
         <v>77</v>
       </c>
       <c r="C110">
-        <v>349</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
@@ -7668,7 +7668,7 @@
         <v>78</v>
       </c>
       <c r="C111">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
@@ -7676,7 +7676,7 @@
         <v>79</v>
       </c>
       <c r="C112">
-        <v>235</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
@@ -7684,7 +7684,7 @@
         <v>80</v>
       </c>
       <c r="C113">
-        <v>230</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
@@ -7692,7 +7692,7 @@
         <v>81</v>
       </c>
       <c r="C114">
-        <v>266</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
@@ -7700,7 +7700,7 @@
         <v>82</v>
       </c>
       <c r="C115">
-        <v>349</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
@@ -7708,7 +7708,7 @@
         <v>83</v>
       </c>
       <c r="C116">
-        <v>390</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
@@ -7716,7 +7716,7 @@
         <v>84</v>
       </c>
       <c r="C117">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
@@ -7724,7 +7724,7 @@
         <v>85</v>
       </c>
       <c r="C118">
-        <v>315</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
@@ -7732,7 +7732,7 @@
         <v>86</v>
       </c>
       <c r="C119">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
@@ -7740,7 +7740,7 @@
         <v>87</v>
       </c>
       <c r="C120">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
@@ -7748,7 +7748,7 @@
         <v>88</v>
       </c>
       <c r="C121">
-        <v>215</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
@@ -7756,7 +7756,7 @@
         <v>89</v>
       </c>
       <c r="C122">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
@@ -7764,7 +7764,7 @@
         <v>90</v>
       </c>
       <c r="C123">
-        <v>268</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
@@ -7772,7 +7772,7 @@
         <v>91</v>
       </c>
       <c r="C124">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
@@ -7780,7 +7780,7 @@
         <v>92</v>
       </c>
       <c r="C125">
-        <v>192</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
@@ -7788,7 +7788,7 @@
         <v>93</v>
       </c>
       <c r="C126">
-        <v>262</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
@@ -7796,7 +7796,7 @@
         <v>94</v>
       </c>
       <c r="C127">
-        <v>383</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
@@ -7804,7 +7804,7 @@
         <v>95</v>
       </c>
       <c r="C128">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
@@ -7812,7 +7812,7 @@
         <v>96</v>
       </c>
       <c r="C129">
-        <v>352</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
         <v>97</v>
       </c>
       <c r="C130">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
@@ -7828,7 +7828,7 @@
         <v>98</v>
       </c>
       <c r="C131">
-        <v>290</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
@@ -7836,7 +7836,7 @@
         <v>99</v>
       </c>
       <c r="C132">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
@@ -7844,7 +7844,7 @@
         <v>100</v>
       </c>
       <c r="C133">
-        <v>262</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
@@ -7852,7 +7852,7 @@
         <v>101</v>
       </c>
       <c r="C134">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
@@ -7860,7 +7860,7 @@
         <v>102</v>
       </c>
       <c r="C135">
-        <v>253</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
@@ -7868,7 +7868,7 @@
         <v>103</v>
       </c>
       <c r="C136">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
@@ -7876,7 +7876,7 @@
         <v>104</v>
       </c>
       <c r="C137">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
@@ -7884,7 +7884,7 @@
         <v>105</v>
       </c>
       <c r="C138">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
@@ -7892,7 +7892,7 @@
         <v>106</v>
       </c>
       <c r="C139">
-        <v>232</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
@@ -7900,7 +7900,7 @@
         <v>107</v>
       </c>
       <c r="C140">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
@@ -7908,7 +7908,7 @@
         <v>108</v>
       </c>
       <c r="C141">
-        <v>223</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
@@ -7916,7 +7916,7 @@
         <v>109</v>
       </c>
       <c r="C142">
-        <v>322</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
@@ -7924,7 +7924,7 @@
         <v>110</v>
       </c>
       <c r="C143">
-        <v>277</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
@@ -7932,7 +7932,7 @@
         <v>111</v>
       </c>
       <c r="C144">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
@@ -7940,7 +7940,7 @@
         <v>112</v>
       </c>
       <c r="C145">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
@@ -7948,7 +7948,7 @@
         <v>113</v>
       </c>
       <c r="C146">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
@@ -7956,7 +7956,7 @@
         <v>114</v>
       </c>
       <c r="C147">
-        <v>353</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
@@ -7964,7 +7964,7 @@
         <v>115</v>
       </c>
       <c r="C148">
-        <v>305</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
@@ -7972,7 +7972,7 @@
         <v>116</v>
       </c>
       <c r="C149">
-        <v>204</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
@@ -7980,7 +7980,7 @@
         <v>117</v>
       </c>
       <c r="C150">
-        <v>160</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
@@ -7988,7 +7988,7 @@
         <v>118</v>
       </c>
       <c r="C151">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
@@ -7996,7 +7996,7 @@
         <v>119</v>
       </c>
       <c r="C152">
-        <v>236</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
@@ -8004,7 +8004,7 @@
         <v>120</v>
       </c>
       <c r="C153">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
@@ -8012,7 +8012,7 @@
         <v>121</v>
       </c>
       <c r="C154">
-        <v>250</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
@@ -8020,7 +8020,7 @@
         <v>122</v>
       </c>
       <c r="C155">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>123</v>
       </c>
       <c r="C156">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
         <v>124</v>
       </c>
       <c r="C157">
-        <v>257</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
@@ -8044,7 +8044,7 @@
         <v>125</v>
       </c>
       <c r="C158">
-        <v>288</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
@@ -8052,7 +8052,7 @@
         <v>126</v>
       </c>
       <c r="C159">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
@@ -8060,7 +8060,7 @@
         <v>127</v>
       </c>
       <c r="C160">
-        <v>403</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
         <v>128</v>
       </c>
       <c r="C161">
-        <v>249</v>
+        <v>410</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
@@ -8076,7 +8076,7 @@
         <v>129</v>
       </c>
       <c r="C162">
-        <v>302</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
@@ -8084,7 +8084,7 @@
         <v>130</v>
       </c>
       <c r="C163">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
@@ -8092,7 +8092,7 @@
         <v>131</v>
       </c>
       <c r="C164">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
@@ -8100,7 +8100,7 @@
         <v>132</v>
       </c>
       <c r="C165">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
@@ -8108,7 +8108,7 @@
         <v>133</v>
       </c>
       <c r="C166">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
@@ -8116,7 +8116,7 @@
         <v>134</v>
       </c>
       <c r="C167">
-        <v>195</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
@@ -8124,7 +8124,7 @@
         <v>135</v>
       </c>
       <c r="C168">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
@@ -8132,7 +8132,7 @@
         <v>136</v>
       </c>
       <c r="C169">
-        <v>194</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
@@ -8140,7 +8140,7 @@
         <v>137</v>
       </c>
       <c r="C170">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
@@ -8148,7 +8148,7 @@
         <v>138</v>
       </c>
       <c r="C171">
-        <v>321</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
@@ -8156,7 +8156,7 @@
         <v>139</v>
       </c>
       <c r="C172">
-        <v>285</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
@@ -8164,7 +8164,7 @@
         <v>140</v>
       </c>
       <c r="C173">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
         <v>141</v>
       </c>
       <c r="C174">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
@@ -8180,7 +8180,7 @@
         <v>142</v>
       </c>
       <c r="C175">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
@@ -8188,7 +8188,7 @@
         <v>143</v>
       </c>
       <c r="C176">
-        <v>339</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
@@ -8196,7 +8196,7 @@
         <v>144</v>
       </c>
       <c r="C177">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
@@ -8204,7 +8204,7 @@
         <v>145</v>
       </c>
       <c r="C178">
-        <v>264</v>
+        <v>359</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
@@ -8212,7 +8212,7 @@
         <v>146</v>
       </c>
       <c r="C179">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
@@ -8220,7 +8220,7 @@
         <v>147</v>
       </c>
       <c r="C180">
-        <v>364</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
@@ -8228,7 +8228,7 @@
         <v>148</v>
       </c>
       <c r="C181">
-        <v>366</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
@@ -8236,7 +8236,7 @@
         <v>149</v>
       </c>
       <c r="C182">
-        <v>433</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
@@ -8244,7 +8244,7 @@
         <v>150</v>
       </c>
       <c r="C183">
-        <v>332</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
@@ -8252,7 +8252,7 @@
         <v>151</v>
       </c>
       <c r="C184">
-        <v>208</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
@@ -8260,7 +8260,7 @@
         <v>152</v>
       </c>
       <c r="C185">
-        <v>365</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
@@ -8268,7 +8268,7 @@
         <v>153</v>
       </c>
       <c r="C186">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
@@ -8276,7 +8276,7 @@
         <v>154</v>
       </c>
       <c r="C187">
-        <v>381</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
@@ -8284,7 +8284,7 @@
         <v>155</v>
       </c>
       <c r="C188">
-        <v>214</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
@@ -8292,7 +8292,7 @@
         <v>156</v>
       </c>
       <c r="C189">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
@@ -8300,7 +8300,7 @@
         <v>157</v>
       </c>
       <c r="C190">
-        <v>209</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
@@ -8308,7 +8308,7 @@
         <v>158</v>
       </c>
       <c r="C191">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
@@ -8316,7 +8316,7 @@
         <v>159</v>
       </c>
       <c r="C192">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
@@ -8324,7 +8324,7 @@
         <v>160</v>
       </c>
       <c r="C193">
-        <v>303</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
@@ -8332,7 +8332,7 @@
         <v>161</v>
       </c>
       <c r="C194">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
@@ -8340,7 +8340,7 @@
         <v>162</v>
       </c>
       <c r="C195">
-        <v>372</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
@@ -8348,7 +8348,7 @@
         <v>163</v>
       </c>
       <c r="C196">
-        <v>375</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
@@ -8356,7 +8356,7 @@
         <v>164</v>
       </c>
       <c r="C197">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
@@ -8364,7 +8364,7 @@
         <v>165</v>
       </c>
       <c r="C198">
-        <v>264</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
@@ -8372,7 +8372,7 @@
         <v>166</v>
       </c>
       <c r="C199">
-        <v>448</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
@@ -8380,7 +8380,7 @@
         <v>167</v>
       </c>
       <c r="C200">
-        <v>350</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
@@ -8388,7 +8388,7 @@
         <v>168</v>
       </c>
       <c r="C201">
-        <v>213</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
         <v>169</v>
       </c>
       <c r="C202">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
@@ -8404,7 +8404,7 @@
         <v>170</v>
       </c>
       <c r="C203">
-        <v>309</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
@@ -8412,7 +8412,7 @@
         <v>171</v>
       </c>
       <c r="C204">
-        <v>330</v>
+        <v>238</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
@@ -8420,7 +8420,7 @@
         <v>172</v>
       </c>
       <c r="C205">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
@@ -8428,7 +8428,7 @@
         <v>173</v>
       </c>
       <c r="C206">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
@@ -8436,7 +8436,7 @@
         <v>174</v>
       </c>
       <c r="C207">
-        <v>437</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
@@ -8444,7 +8444,7 @@
         <v>175</v>
       </c>
       <c r="C208">
-        <v>360</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
@@ -8452,7 +8452,7 @@
         <v>176</v>
       </c>
       <c r="C209">
-        <v>377</v>
+        <v>335</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
@@ -8460,7 +8460,7 @@
         <v>177</v>
       </c>
       <c r="C210">
-        <v>226</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
@@ -8468,7 +8468,7 @@
         <v>178</v>
       </c>
       <c r="C211">
-        <v>258</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>179</v>
       </c>
       <c r="C212">
-        <v>364</v>
+        <v>291</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
@@ -8492,7 +8492,7 @@
         <v>181</v>
       </c>
       <c r="C214">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
@@ -8500,7 +8500,7 @@
         <v>182</v>
       </c>
       <c r="C215">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
@@ -8508,7 +8508,7 @@
         <v>183</v>
       </c>
       <c r="C216">
-        <v>422</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
@@ -8516,7 +8516,7 @@
         <v>184</v>
       </c>
       <c r="C217">
-        <v>354</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
@@ -8524,7 +8524,7 @@
         <v>185</v>
       </c>
       <c r="C218">
-        <v>264</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
@@ -8532,7 +8532,7 @@
         <v>186</v>
       </c>
       <c r="C219">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
@@ -8540,7 +8540,7 @@
         <v>187</v>
       </c>
       <c r="C220">
-        <v>304</v>
+        <v>394</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
@@ -8548,7 +8548,7 @@
         <v>188</v>
       </c>
       <c r="C221">
-        <v>398</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
@@ -8556,7 +8556,7 @@
         <v>189</v>
       </c>
       <c r="C222">
-        <v>333</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
@@ -8564,7 +8564,7 @@
         <v>190</v>
       </c>
       <c r="C223">
-        <v>356</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
@@ -8572,7 +8572,7 @@
         <v>191</v>
       </c>
       <c r="C224">
-        <v>260</v>
+        <v>369</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
@@ -8580,7 +8580,7 @@
         <v>192</v>
       </c>
       <c r="C225">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
@@ -8588,7 +8588,7 @@
         <v>193</v>
       </c>
       <c r="C226">
-        <v>192</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
@@ -8596,7 +8596,7 @@
         <v>194</v>
       </c>
       <c r="C227">
-        <v>401</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
@@ -8604,7 +8604,7 @@
         <v>195</v>
       </c>
       <c r="C228">
-        <v>314</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
@@ -8612,7 +8612,7 @@
         <v>196</v>
       </c>
       <c r="C229">
-        <v>411</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
@@ -8620,7 +8620,7 @@
         <v>197</v>
       </c>
       <c r="C230">
-        <v>343</v>
+        <v>309</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
@@ -8628,7 +8628,7 @@
         <v>198</v>
       </c>
       <c r="C231">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
@@ -8636,7 +8636,7 @@
         <v>199</v>
       </c>
       <c r="C232">
-        <v>302</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
@@ -8644,7 +8644,7 @@
         <v>200</v>
       </c>
       <c r="C233">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
         <v>201</v>
       </c>
       <c r="C234">
-        <v>350</v>
+        <v>272</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
@@ -8660,7 +8660,7 @@
         <v>202</v>
       </c>
       <c r="C235">
-        <v>263</v>
+        <v>183</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
@@ -8668,7 +8668,7 @@
         <v>203</v>
       </c>
       <c r="C236">
-        <v>411</v>
+        <v>350</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
@@ -8676,7 +8676,7 @@
         <v>204</v>
       </c>
       <c r="C237">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
@@ -8684,7 +8684,7 @@
         <v>205</v>
       </c>
       <c r="C238">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
@@ -8692,7 +8692,7 @@
         <v>206</v>
       </c>
       <c r="C239">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
@@ -8700,7 +8700,7 @@
         <v>207</v>
       </c>
       <c r="C240">
-        <v>286</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
@@ -8708,7 +8708,7 @@
         <v>208</v>
       </c>
       <c r="C241">
-        <v>358</v>
+        <v>463</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
@@ -8716,7 +8716,7 @@
         <v>209</v>
       </c>
       <c r="C242">
-        <v>174</v>
+        <v>305</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
         <v>210</v>
       </c>
       <c r="C243">
-        <v>256</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
@@ -8732,7 +8732,7 @@
         <v>211</v>
       </c>
       <c r="C244">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
@@ -8740,7 +8740,7 @@
         <v>212</v>
       </c>
       <c r="C245">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
@@ -8748,7 +8748,7 @@
         <v>213</v>
       </c>
       <c r="C246">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
@@ -8756,7 +8756,7 @@
         <v>214</v>
       </c>
       <c r="C247">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
@@ -8764,7 +8764,7 @@
         <v>215</v>
       </c>
       <c r="C248">
-        <v>422</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
@@ -8772,7 +8772,7 @@
         <v>216</v>
       </c>
       <c r="C249">
-        <v>332</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
@@ -8780,7 +8780,7 @@
         <v>217</v>
       </c>
       <c r="C250">
-        <v>324</v>
+        <v>203</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
@@ -8788,7 +8788,7 @@
         <v>218</v>
       </c>
       <c r="C251">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
@@ -8796,7 +8796,7 @@
         <v>219</v>
       </c>
       <c r="C252">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
@@ -8804,7 +8804,7 @@
         <v>220</v>
       </c>
       <c r="C253">
-        <v>294</v>
+        <v>338</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
@@ -8812,7 +8812,7 @@
         <v>221</v>
       </c>
       <c r="C254">
-        <v>248</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
@@ -8820,7 +8820,7 @@
         <v>222</v>
       </c>
       <c r="C255">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
@@ -8828,7 +8828,7 @@
         <v>223</v>
       </c>
       <c r="C256">
-        <v>207</v>
+        <v>331</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
         <v>224</v>
       </c>
       <c r="C257">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
@@ -8844,7 +8844,7 @@
         <v>225</v>
       </c>
       <c r="C258">
-        <v>252</v>
+        <v>294</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
@@ -8852,7 +8852,7 @@
         <v>226</v>
       </c>
       <c r="C259">
-        <v>311</v>
+        <v>241</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
@@ -8860,7 +8860,7 @@
         <v>227</v>
       </c>
       <c r="C260">
-        <v>318</v>
+        <v>438</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
@@ -8868,7 +8868,7 @@
         <v>228</v>
       </c>
       <c r="C261">
-        <v>424</v>
+        <v>377</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
@@ -8876,7 +8876,7 @@
         <v>229</v>
       </c>
       <c r="C262">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
@@ -8884,7 +8884,7 @@
         <v>230</v>
       </c>
       <c r="C263">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
@@ -8892,7 +8892,7 @@
         <v>231</v>
       </c>
       <c r="C264">
-        <v>368</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
@@ -8900,7 +8900,7 @@
         <v>232</v>
       </c>
       <c r="C265">
-        <v>335</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
         <v>233</v>
       </c>
       <c r="C266">
-        <v>245</v>
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
@@ -8916,7 +8916,7 @@
         <v>234</v>
       </c>
       <c r="C267">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
@@ -8924,7 +8924,7 @@
         <v>235</v>
       </c>
       <c r="C268">
-        <v>388</v>
+        <v>304</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
@@ -8932,7 +8932,7 @@
         <v>236</v>
       </c>
       <c r="C269">
-        <v>292</v>
+        <v>354</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
@@ -8940,7 +8940,7 @@
         <v>237</v>
       </c>
       <c r="C270">
-        <v>386</v>
+        <v>237</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
@@ -8948,7 +8948,7 @@
         <v>238</v>
       </c>
       <c r="C271">
-        <v>268</v>
+        <v>342</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
@@ -8956,7 +8956,7 @@
         <v>239</v>
       </c>
       <c r="C272">
-        <v>239</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
@@ -8964,7 +8964,7 @@
         <v>240</v>
       </c>
       <c r="C273">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
@@ -8972,7 +8972,7 @@
         <v>241</v>
       </c>
       <c r="C274">
-        <v>339</v>
+        <v>359</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
@@ -8980,7 +8980,7 @@
         <v>242</v>
       </c>
       <c r="C275">
-        <v>394</v>
+        <v>362</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
@@ -8988,7 +8988,7 @@
         <v>243</v>
       </c>
       <c r="C276">
-        <v>395</v>
+        <v>225</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
@@ -8996,7 +8996,7 @@
         <v>244</v>
       </c>
       <c r="C277">
-        <v>234</v>
+        <v>338</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
@@ -9004,7 +9004,7 @@
         <v>245</v>
       </c>
       <c r="C278">
-        <v>355</v>
+        <v>265</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
@@ -9012,7 +9012,7 @@
         <v>246</v>
       </c>
       <c r="C279">
-        <v>429</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
@@ -9020,7 +9020,7 @@
         <v>247</v>
       </c>
       <c r="C280">
-        <v>316</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
@@ -9028,7 +9028,7 @@
         <v>248</v>
       </c>
       <c r="C281">
-        <v>333</v>
+        <v>273</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
@@ -9036,7 +9036,7 @@
         <v>249</v>
       </c>
       <c r="C282">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
@@ -9044,7 +9044,7 @@
         <v>250</v>
       </c>
       <c r="C283">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
@@ -9052,7 +9052,7 @@
         <v>251</v>
       </c>
       <c r="C284">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
@@ -9060,7 +9060,7 @@
         <v>252</v>
       </c>
       <c r="C285">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
@@ -9068,7 +9068,7 @@
         <v>253</v>
       </c>
       <c r="C286">
-        <v>204</v>
+        <v>322</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
@@ -9076,7 +9076,7 @@
         <v>254</v>
       </c>
       <c r="C287">
-        <v>187</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
@@ -9084,7 +9084,7 @@
         <v>255</v>
       </c>
       <c r="C288">
-        <v>362</v>
+        <v>273</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
@@ -9092,7 +9092,7 @@
         <v>256</v>
       </c>
       <c r="C289">
-        <v>325</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
@@ -9100,7 +9100,7 @@
         <v>257</v>
       </c>
       <c r="C290">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
@@ -9108,7 +9108,7 @@
         <v>258</v>
       </c>
       <c r="C291">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
@@ -9116,7 +9116,7 @@
         <v>259</v>
       </c>
       <c r="C292">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
         <v>260</v>
       </c>
       <c r="C293">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
@@ -9132,7 +9132,7 @@
         <v>261</v>
       </c>
       <c r="C294">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
@@ -9140,7 +9140,7 @@
         <v>262</v>
       </c>
       <c r="C295">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
@@ -9148,7 +9148,7 @@
         <v>263</v>
       </c>
       <c r="C296">
-        <v>312</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
@@ -9156,7 +9156,7 @@
         <v>264</v>
       </c>
       <c r="C297">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
@@ -9164,7 +9164,7 @@
         <v>265</v>
       </c>
       <c r="C298">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
@@ -9172,7 +9172,7 @@
         <v>266</v>
       </c>
       <c r="C299">
-        <v>414</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
@@ -9180,7 +9180,7 @@
         <v>267</v>
       </c>
       <c r="C300">
-        <v>425</v>
+        <v>273</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
@@ -9188,7 +9188,7 @@
         <v>268</v>
       </c>
       <c r="C301">
-        <v>325</v>
+        <v>209</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
@@ -9196,7 +9196,7 @@
         <v>269</v>
       </c>
       <c r="C302">
-        <v>435</v>
+        <v>396</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
@@ -9204,7 +9204,7 @@
         <v>270</v>
       </c>
       <c r="C303">
-        <v>262</v>
+        <v>416</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
@@ -9212,7 +9212,7 @@
         <v>271</v>
       </c>
       <c r="C304">
-        <v>258</v>
+        <v>340</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
@@ -9220,7 +9220,7 @@
         <v>272</v>
       </c>
       <c r="C305">
-        <v>395</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
@@ -9228,7 +9228,7 @@
         <v>273</v>
       </c>
       <c r="C306">
-        <v>370</v>
+        <v>266</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
@@ -9236,7 +9236,7 @@
         <v>274</v>
       </c>
       <c r="C307">
-        <v>279</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
@@ -9244,7 +9244,7 @@
         <v>275</v>
       </c>
       <c r="C308">
-        <v>388</v>
+        <v>299</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
@@ -9252,7 +9252,7 @@
         <v>276</v>
       </c>
       <c r="C309">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
@@ -9260,7 +9260,7 @@
         <v>277</v>
       </c>
       <c r="C310">
-        <v>255</v>
+        <v>346</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
         <v>278</v>
       </c>
       <c r="C311">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
@@ -9276,7 +9276,7 @@
         <v>279</v>
       </c>
       <c r="C312">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
@@ -9284,7 +9284,7 @@
         <v>280</v>
       </c>
       <c r="C313">
-        <v>297</v>
+        <v>270</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
@@ -9292,7 +9292,7 @@
         <v>281</v>
       </c>
       <c r="C314">
-        <v>232</v>
+        <v>352</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
@@ -9300,7 +9300,7 @@
         <v>282</v>
       </c>
       <c r="C315">
-        <v>347</v>
+        <v>276</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
@@ -9308,7 +9308,7 @@
         <v>283</v>
       </c>
       <c r="C316">
-        <v>241</v>
+        <v>343</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
@@ -9316,7 +9316,7 @@
         <v>284</v>
       </c>
       <c r="C317">
-        <v>193</v>
+        <v>375</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
@@ -9324,7 +9324,7 @@
         <v>285</v>
       </c>
       <c r="C318">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
@@ -9332,7 +9332,7 @@
         <v>286</v>
       </c>
       <c r="C319">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
@@ -9340,7 +9340,7 @@
         <v>287</v>
       </c>
       <c r="C320">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
@@ -9348,7 +9348,7 @@
         <v>288</v>
       </c>
       <c r="C321">
-        <v>278</v>
+        <v>368</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
@@ -9356,7 +9356,7 @@
         <v>289</v>
       </c>
       <c r="C322">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
@@ -9364,7 +9364,7 @@
         <v>290</v>
       </c>
       <c r="C323">
-        <v>230</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
@@ -9372,7 +9372,7 @@
         <v>291</v>
       </c>
       <c r="C324">
-        <v>407</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
@@ -9380,7 +9380,7 @@
         <v>292</v>
       </c>
       <c r="C325">
-        <v>346</v>
+        <v>251</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
@@ -9388,7 +9388,7 @@
         <v>293</v>
       </c>
       <c r="C326">
-        <v>367</v>
+        <v>242</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
@@ -9396,7 +9396,7 @@
         <v>294</v>
       </c>
       <c r="C327">
-        <v>369</v>
+        <v>300</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
@@ -9404,7 +9404,7 @@
         <v>295</v>
       </c>
       <c r="C328">
-        <v>298</v>
+        <v>373</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
@@ -9412,7 +9412,7 @@
         <v>296</v>
       </c>
       <c r="C329">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
@@ -9420,7 +9420,7 @@
         <v>297</v>
       </c>
       <c r="C330">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
@@ -9428,7 +9428,7 @@
         <v>298</v>
       </c>
       <c r="C331">
-        <v>359</v>
+        <v>186</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
@@ -9436,7 +9436,7 @@
         <v>299</v>
       </c>
       <c r="C332">
-        <v>127</v>
+        <v>269</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
@@ -9444,7 +9444,7 @@
         <v>300</v>
       </c>
       <c r="C333">
-        <v>174</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
@@ -9452,7 +9452,7 @@
         <v>301</v>
       </c>
       <c r="C334">
-        <v>347</v>
+        <v>269</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
@@ -9460,7 +9460,7 @@
         <v>302</v>
       </c>
       <c r="C335">
-        <v>351</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
@@ -9468,7 +9468,7 @@
         <v>303</v>
       </c>
       <c r="C336">
-        <v>410</v>
+        <v>366</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
@@ -9476,7 +9476,7 @@
         <v>304</v>
       </c>
       <c r="C337">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
@@ -9484,7 +9484,7 @@
         <v>305</v>
       </c>
       <c r="C338">
-        <v>381</v>
+        <v>296</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
@@ -9492,7 +9492,7 @@
         <v>306</v>
       </c>
       <c r="C339">
-        <v>284</v>
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
@@ -9500,7 +9500,7 @@
         <v>307</v>
       </c>
       <c r="C340">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
@@ -9508,7 +9508,7 @@
         <v>308</v>
       </c>
       <c r="C341">
-        <v>236</v>
+        <v>307</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
@@ -9516,7 +9516,7 @@
         <v>309</v>
       </c>
       <c r="C342">
-        <v>365</v>
+        <v>290</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
@@ -9524,7 +9524,7 @@
         <v>310</v>
       </c>
       <c r="C343">
-        <v>370</v>
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
@@ -9532,7 +9532,7 @@
         <v>311</v>
       </c>
       <c r="C344">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
@@ -9540,7 +9540,7 @@
         <v>312</v>
       </c>
       <c r="C345">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
@@ -9548,7 +9548,7 @@
         <v>313</v>
       </c>
       <c r="C346">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
         <v>314</v>
       </c>
       <c r="C347">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
@@ -9564,7 +9564,7 @@
         <v>315</v>
       </c>
       <c r="C348">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
@@ -9572,7 +9572,7 @@
         <v>316</v>
       </c>
       <c r="C349">
-        <v>384</v>
+        <v>320</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
@@ -9580,7 +9580,7 @@
         <v>317</v>
       </c>
       <c r="C350">
-        <v>325</v>
+        <v>385</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
@@ -9588,7 +9588,7 @@
         <v>318</v>
       </c>
       <c r="C351">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
@@ -9596,7 +9596,7 @@
         <v>319</v>
       </c>
       <c r="C352">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
@@ -9604,7 +9604,7 @@
         <v>320</v>
       </c>
       <c r="C353">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
@@ -9612,7 +9612,7 @@
         <v>321</v>
       </c>
       <c r="C354">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
@@ -9620,7 +9620,7 @@
         <v>322</v>
       </c>
       <c r="C355">
-        <v>368</v>
+        <v>400</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
         <v>323</v>
       </c>
       <c r="C356">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
@@ -9636,7 +9636,7 @@
         <v>324</v>
       </c>
       <c r="C357">
-        <v>343</v>
+        <v>158</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
@@ -9644,7 +9644,7 @@
         <v>325</v>
       </c>
       <c r="C358">
-        <v>431</v>
+        <v>349</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
@@ -9652,7 +9652,7 @@
         <v>326</v>
       </c>
       <c r="C359">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
@@ -9660,7 +9660,7 @@
         <v>327</v>
       </c>
       <c r="C360">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
@@ -9668,7 +9668,7 @@
         <v>328</v>
       </c>
       <c r="C361">
-        <v>183</v>
+        <v>238</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
@@ -9676,7 +9676,7 @@
         <v>329</v>
       </c>
       <c r="C362">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
@@ -9684,7 +9684,7 @@
         <v>330</v>
       </c>
       <c r="C363">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
@@ -9692,7 +9692,7 @@
         <v>331</v>
       </c>
       <c r="C364">
-        <v>284</v>
+        <v>224</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
@@ -9700,7 +9700,7 @@
         <v>332</v>
       </c>
       <c r="C365">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
@@ -9708,7 +9708,7 @@
         <v>333</v>
       </c>
       <c r="C366">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
@@ -9716,7 +9716,7 @@
         <v>334</v>
       </c>
       <c r="C367">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
@@ -9724,7 +9724,7 @@
         <v>335</v>
       </c>
       <c r="C368">
-        <v>308</v>
+        <v>233</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
         <v>336</v>
       </c>
       <c r="C369">
-        <v>263</v>
+        <v>316</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
@@ -9740,7 +9740,7 @@
         <v>337</v>
       </c>
       <c r="C370">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
@@ -9748,7 +9748,7 @@
         <v>338</v>
       </c>
       <c r="C371">
-        <v>405</v>
+        <v>334</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
@@ -9756,7 +9756,7 @@
         <v>339</v>
       </c>
       <c r="C372">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
@@ -9764,7 +9764,7 @@
         <v>340</v>
       </c>
       <c r="C373">
-        <v>248</v>
+        <v>346</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
         <v>341</v>
       </c>
       <c r="C374">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
@@ -9780,7 +9780,7 @@
         <v>342</v>
       </c>
       <c r="C375">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
@@ -9788,7 +9788,7 @@
         <v>343</v>
       </c>
       <c r="C376">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
@@ -9796,7 +9796,7 @@
         <v>344</v>
       </c>
       <c r="C377">
-        <v>235</v>
+        <v>311</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
@@ -9804,7 +9804,7 @@
         <v>345</v>
       </c>
       <c r="C378">
-        <v>221</v>
+        <v>336</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
@@ -9812,7 +9812,7 @@
         <v>346</v>
       </c>
       <c r="C379">
-        <v>311</v>
+        <v>241</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
@@ -9820,7 +9820,7 @@
         <v>347</v>
       </c>
       <c r="C380">
-        <v>287</v>
+        <v>338</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
@@ -9828,7 +9828,7 @@
         <v>348</v>
       </c>
       <c r="C381">
-        <v>279</v>
+        <v>361</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
@@ -9836,7 +9836,7 @@
         <v>349</v>
       </c>
       <c r="C382">
-        <v>326</v>
+        <v>228</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
@@ -9844,7 +9844,7 @@
         <v>350</v>
       </c>
       <c r="C383">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
@@ -9852,7 +9852,7 @@
         <v>351</v>
       </c>
       <c r="C384">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
@@ -9860,7 +9860,7 @@
         <v>352</v>
       </c>
       <c r="C385">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
@@ -9868,7 +9868,7 @@
         <v>353</v>
       </c>
       <c r="C386">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
@@ -9876,7 +9876,7 @@
         <v>354</v>
       </c>
       <c r="C387">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
@@ -9884,7 +9884,7 @@
         <v>355</v>
       </c>
       <c r="C388">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
@@ -9892,7 +9892,7 @@
         <v>356</v>
       </c>
       <c r="C389">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
@@ -9900,7 +9900,7 @@
         <v>357</v>
       </c>
       <c r="C390">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
@@ -9908,7 +9908,7 @@
         <v>358</v>
       </c>
       <c r="C391">
-        <v>398</v>
+        <v>335</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
@@ -9916,7 +9916,7 @@
         <v>359</v>
       </c>
       <c r="C392">
-        <v>216</v>
+        <v>344</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
@@ -9924,7 +9924,7 @@
         <v>360</v>
       </c>
       <c r="C393">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
@@ -9932,7 +9932,7 @@
         <v>361</v>
       </c>
       <c r="C394">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
@@ -9940,7 +9940,7 @@
         <v>362</v>
       </c>
       <c r="C395">
-        <v>209</v>
+        <v>402</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
@@ -9948,7 +9948,7 @@
         <v>363</v>
       </c>
       <c r="C396">
-        <v>280</v>
+        <v>371</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
@@ -9956,7 +9956,7 @@
         <v>364</v>
       </c>
       <c r="C397">
-        <v>295</v>
+        <v>336</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
@@ -9964,7 +9964,7 @@
         <v>365</v>
       </c>
       <c r="C398">
-        <v>403</v>
+        <v>465</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
@@ -9972,7 +9972,7 @@
         <v>366</v>
       </c>
       <c r="C399">
-        <v>127</v>
+        <v>221</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
@@ -9980,7 +9980,7 @@
         <v>367</v>
       </c>
       <c r="C400">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
@@ -9988,7 +9988,7 @@
         <v>368</v>
       </c>
       <c r="C401">
-        <v>345</v>
+        <v>372</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
@@ -9996,7 +9996,7 @@
         <v>369</v>
       </c>
       <c r="C402">
-        <v>294</v>
+        <v>249</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
@@ -10004,7 +10004,7 @@
         <v>370</v>
       </c>
       <c r="C403">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
@@ -10012,7 +10012,7 @@
         <v>371</v>
       </c>
       <c r="C404">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
@@ -10020,7 +10020,7 @@
         <v>372</v>
       </c>
       <c r="C405">
-        <v>407</v>
+        <v>280</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
@@ -10028,7 +10028,7 @@
         <v>373</v>
       </c>
       <c r="C406">
-        <v>281</v>
+        <v>340</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
@@ -10036,7 +10036,7 @@
         <v>374</v>
       </c>
       <c r="C407">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
@@ -10044,7 +10044,7 @@
         <v>375</v>
       </c>
       <c r="C408">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
         <v>376</v>
       </c>
       <c r="C409">
-        <v>318</v>
+        <v>373</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
@@ -10060,7 +10060,7 @@
         <v>377</v>
       </c>
       <c r="C410">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
@@ -10068,7 +10068,7 @@
         <v>378</v>
       </c>
       <c r="C411">
-        <v>323</v>
+        <v>292</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
@@ -10084,7 +10084,7 @@
         <v>380</v>
       </c>
       <c r="C413">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
@@ -10092,7 +10092,7 @@
         <v>381</v>
       </c>
       <c r="C414">
-        <v>383</v>
+        <v>229</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
@@ -10100,7 +10100,7 @@
         <v>382</v>
       </c>
       <c r="C415">
-        <v>205</v>
+        <v>409</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
@@ -10108,7 +10108,7 @@
         <v>383</v>
       </c>
       <c r="C416">
-        <v>352</v>
+        <v>259</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
@@ -10116,7 +10116,7 @@
         <v>384</v>
       </c>
       <c r="C417">
-        <v>269</v>
+        <v>329</v>
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
@@ -10124,7 +10124,7 @@
         <v>385</v>
       </c>
       <c r="C418">
-        <v>326</v>
+        <v>374</v>
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
@@ -10132,7 +10132,7 @@
         <v>386</v>
       </c>
       <c r="C419">
-        <v>448</v>
+        <v>308</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
@@ -10140,7 +10140,7 @@
         <v>387</v>
       </c>
       <c r="C420">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
@@ -10148,7 +10148,7 @@
         <v>388</v>
       </c>
       <c r="C421">
-        <v>356</v>
+        <v>311</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
@@ -10156,7 +10156,7 @@
         <v>389</v>
       </c>
       <c r="C422">
-        <v>194</v>
+        <v>273</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
@@ -10164,7 +10164,7 @@
         <v>390</v>
       </c>
       <c r="C423">
-        <v>179</v>
+        <v>332</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
@@ -10172,7 +10172,7 @@
         <v>391</v>
       </c>
       <c r="C424">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
@@ -10180,7 +10180,7 @@
         <v>392</v>
       </c>
       <c r="C425">
-        <v>240</v>
+        <v>316</v>
       </c>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
@@ -10188,7 +10188,7 @@
         <v>393</v>
       </c>
       <c r="C426">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
@@ -10196,7 +10196,7 @@
         <v>394</v>
       </c>
       <c r="C427">
-        <v>410</v>
+        <v>297</v>
       </c>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
@@ -10204,7 +10204,7 @@
         <v>395</v>
       </c>
       <c r="C428">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
@@ -10212,7 +10212,7 @@
         <v>396</v>
       </c>
       <c r="C429">
-        <v>179</v>
+        <v>275</v>
       </c>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
@@ -10220,7 +10220,7 @@
         <v>397</v>
       </c>
       <c r="C430">
-        <v>369</v>
+        <v>274</v>
       </c>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
@@ -10228,7 +10228,7 @@
         <v>398</v>
       </c>
       <c r="C431">
-        <v>286</v>
+        <v>372</v>
       </c>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
@@ -10236,7 +10236,7 @@
         <v>399</v>
       </c>
       <c r="C432">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
@@ -10244,7 +10244,7 @@
         <v>400</v>
       </c>
       <c r="C433">
-        <v>379</v>
+        <v>240</v>
       </c>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
@@ -10252,7 +10252,7 @@
         <v>401</v>
       </c>
       <c r="C434">
-        <v>330</v>
+        <v>415</v>
       </c>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
@@ -10260,7 +10260,7 @@
         <v>402</v>
       </c>
       <c r="C435">
-        <v>329</v>
+        <v>280</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
@@ -10268,7 +10268,7 @@
         <v>403</v>
       </c>
       <c r="C436">
-        <v>363</v>
+        <v>317</v>
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
@@ -10276,7 +10276,7 @@
         <v>404</v>
       </c>
       <c r="C437">
-        <v>319</v>
+        <v>250</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
@@ -10284,7 +10284,7 @@
         <v>405</v>
       </c>
       <c r="C438">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
@@ -10292,7 +10292,7 @@
         <v>406</v>
       </c>
       <c r="C439">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
@@ -10300,7 +10300,7 @@
         <v>407</v>
       </c>
       <c r="C440">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
@@ -10308,7 +10308,7 @@
         <v>408</v>
       </c>
       <c r="C441">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
@@ -10316,7 +10316,7 @@
         <v>409</v>
       </c>
       <c r="C442">
-        <v>236</v>
+        <v>309</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
@@ -10324,7 +10324,7 @@
         <v>410</v>
       </c>
       <c r="C443">
-        <v>272</v>
+        <v>350</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
@@ -10332,7 +10332,7 @@
         <v>411</v>
       </c>
       <c r="C444">
-        <v>403</v>
+        <v>229</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
@@ -10340,7 +10340,7 @@
         <v>412</v>
       </c>
       <c r="C445">
-        <v>236</v>
+        <v>299</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
@@ -10348,7 +10348,7 @@
         <v>413</v>
       </c>
       <c r="C446">
-        <v>283</v>
+        <v>392</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
@@ -10356,7 +10356,7 @@
         <v>414</v>
       </c>
       <c r="C447">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
@@ -10364,7 +10364,7 @@
         <v>415</v>
       </c>
       <c r="C448">
-        <v>329</v>
+        <v>249</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
@@ -10372,7 +10372,7 @@
         <v>416</v>
       </c>
       <c r="C449">
-        <v>367</v>
+        <v>222</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
@@ -10380,7 +10380,7 @@
         <v>417</v>
       </c>
       <c r="C450">
-        <v>368</v>
+        <v>280</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
@@ -10388,7 +10388,7 @@
         <v>418</v>
       </c>
       <c r="C451">
-        <v>298</v>
+        <v>471</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
@@ -10396,7 +10396,7 @@
         <v>419</v>
       </c>
       <c r="C452">
-        <v>191</v>
+        <v>376</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
@@ -10404,7 +10404,7 @@
         <v>420</v>
       </c>
       <c r="C453">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
@@ -10412,7 +10412,7 @@
         <v>421</v>
       </c>
       <c r="C454">
-        <v>324</v>
+        <v>270</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
@@ -10420,7 +10420,7 @@
         <v>422</v>
       </c>
       <c r="C455">
-        <v>258</v>
+        <v>463</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
@@ -10428,7 +10428,7 @@
         <v>423</v>
       </c>
       <c r="C456">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
@@ -10436,7 +10436,7 @@
         <v>424</v>
       </c>
       <c r="C457">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
@@ -10444,7 +10444,7 @@
         <v>425</v>
       </c>
       <c r="C458">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
@@ -10452,7 +10452,7 @@
         <v>426</v>
       </c>
       <c r="C459">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
@@ -10460,7 +10460,7 @@
         <v>427</v>
       </c>
       <c r="C460">
-        <v>356</v>
+        <v>285</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
@@ -10468,7 +10468,7 @@
         <v>428</v>
       </c>
       <c r="C461">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
@@ -10476,7 +10476,7 @@
         <v>429</v>
       </c>
       <c r="C462">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
@@ -10484,7 +10484,7 @@
         <v>430</v>
       </c>
       <c r="C463">
-        <v>408</v>
+        <v>280</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
@@ -10492,7 +10492,7 @@
         <v>431</v>
       </c>
       <c r="C464">
-        <v>285</v>
+        <v>441</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
@@ -10500,7 +10500,7 @@
         <v>432</v>
       </c>
       <c r="C465">
-        <v>363</v>
+        <v>290</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
@@ -10508,7 +10508,7 @@
         <v>433</v>
       </c>
       <c r="C466">
-        <v>314</v>
+        <v>380</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
@@ -10516,7 +10516,7 @@
         <v>434</v>
       </c>
       <c r="C467">
-        <v>201</v>
+        <v>307</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
@@ -10524,7 +10524,7 @@
         <v>435</v>
       </c>
       <c r="C468">
-        <v>395</v>
+        <v>340</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
@@ -10532,7 +10532,7 @@
         <v>436</v>
       </c>
       <c r="C469">
-        <v>436</v>
+        <v>213</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
@@ -10540,7 +10540,7 @@
         <v>437</v>
       </c>
       <c r="C470">
-        <v>336</v>
+        <v>384</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
@@ -10548,7 +10548,7 @@
         <v>438</v>
       </c>
       <c r="C471">
-        <v>275</v>
+        <v>243</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
@@ -10556,7 +10556,7 @@
         <v>439</v>
       </c>
       <c r="C472">
-        <v>371</v>
+        <v>304</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
@@ -10564,7 +10564,7 @@
         <v>440</v>
       </c>
       <c r="C473">
-        <v>447</v>
+        <v>331</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
@@ -10572,7 +10572,7 @@
         <v>441</v>
       </c>
       <c r="C474">
-        <v>342</v>
+        <v>308</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
@@ -10580,7 +10580,7 @@
         <v>442</v>
       </c>
       <c r="C475">
-        <v>409</v>
+        <v>254</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
@@ -10588,7 +10588,7 @@
         <v>443</v>
       </c>
       <c r="C476">
-        <v>399</v>
+        <v>328</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
@@ -10596,7 +10596,7 @@
         <v>444</v>
       </c>
       <c r="C477">
-        <v>357</v>
+        <v>299</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
@@ -10604,7 +10604,7 @@
         <v>445</v>
       </c>
       <c r="C478">
-        <v>386</v>
+        <v>275</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
@@ -10612,7 +10612,7 @@
         <v>446</v>
       </c>
       <c r="C479">
-        <v>386</v>
+        <v>316</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
@@ -10620,7 +10620,7 @@
         <v>447</v>
       </c>
       <c r="C480">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
@@ -10628,7 +10628,7 @@
         <v>448</v>
       </c>
       <c r="C481">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
@@ -10636,7 +10636,7 @@
         <v>449</v>
       </c>
       <c r="C482">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
@@ -10644,7 +10644,7 @@
         <v>450</v>
       </c>
       <c r="C483">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
@@ -10652,7 +10652,7 @@
         <v>451</v>
       </c>
       <c r="C484">
-        <v>170</v>
+        <v>356</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
@@ -10660,7 +10660,7 @@
         <v>452</v>
       </c>
       <c r="C485">
-        <v>373</v>
+        <v>254</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
@@ -10668,7 +10668,7 @@
         <v>453</v>
       </c>
       <c r="C486">
-        <v>331</v>
+        <v>253</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
@@ -10676,7 +10676,7 @@
         <v>454</v>
       </c>
       <c r="C487">
-        <v>268</v>
+        <v>354</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.2">
@@ -10684,7 +10684,7 @@
         <v>455</v>
       </c>
       <c r="C488">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.2">
@@ -10692,7 +10692,7 @@
         <v>456</v>
       </c>
       <c r="C489">
-        <v>290</v>
+        <v>402</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.2">
@@ -10700,7 +10700,7 @@
         <v>457</v>
       </c>
       <c r="C490">
-        <v>454</v>
+        <v>372</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.2">
@@ -10708,7 +10708,7 @@
         <v>458</v>
       </c>
       <c r="C491">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
@@ -10716,7 +10716,7 @@
         <v>459</v>
       </c>
       <c r="C492">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.2">
@@ -10724,7 +10724,7 @@
         <v>460</v>
       </c>
       <c r="C493">
-        <v>206</v>
+        <v>332</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.2">
@@ -10732,7 +10732,7 @@
         <v>461</v>
       </c>
       <c r="C494">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
@@ -10740,7 +10740,7 @@
         <v>462</v>
       </c>
       <c r="C495">
-        <v>301</v>
+        <v>375</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.2">
@@ -10748,7 +10748,7 @@
         <v>463</v>
       </c>
       <c r="C496">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.2">
@@ -10756,7 +10756,7 @@
         <v>464</v>
       </c>
       <c r="C497">
-        <v>281</v>
+        <v>339</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.2">
@@ -10764,7 +10764,7 @@
         <v>465</v>
       </c>
       <c r="C498">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.2">
@@ -10772,7 +10772,7 @@
         <v>466</v>
       </c>
       <c r="C499">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.2">
@@ -10780,7 +10780,7 @@
         <v>467</v>
       </c>
       <c r="C500">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.2">
@@ -10788,7 +10788,7 @@
         <v>468</v>
       </c>
       <c r="C501">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.2">
@@ -10796,7 +10796,7 @@
         <v>469</v>
       </c>
       <c r="C502">
-        <v>335</v>
+        <v>297</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.2">
@@ -10804,7 +10804,7 @@
         <v>470</v>
       </c>
       <c r="C503">
-        <v>318</v>
+        <v>421</v>
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.2">
@@ -10812,7 +10812,7 @@
         <v>471</v>
       </c>
       <c r="C504">
-        <v>433</v>
+        <v>365</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.2">
@@ -10820,7 +10820,7 @@
         <v>472</v>
       </c>
       <c r="C505">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.2">
@@ -10828,7 +10828,7 @@
         <v>473</v>
       </c>
       <c r="C506">
-        <v>383</v>
+        <v>278</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.2">
@@ -10836,7 +10836,7 @@
         <v>474</v>
       </c>
       <c r="C507">
-        <v>423</v>
+        <v>295</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.2">
@@ -10844,7 +10844,7 @@
         <v>475</v>
       </c>
       <c r="C508">
-        <v>283</v>
+        <v>212</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.2">
@@ -10852,7 +10852,7 @@
         <v>476</v>
       </c>
       <c r="C509">
-        <v>360</v>
+        <v>283</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.2">
@@ -10860,7 +10860,7 @@
         <v>477</v>
       </c>
       <c r="C510">
-        <v>273</v>
+        <v>403</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.2">
@@ -10868,7 +10868,7 @@
         <v>478</v>
       </c>
       <c r="C511">
-        <v>365</v>
+        <v>418</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.2">
@@ -10876,7 +10876,7 @@
         <v>479</v>
       </c>
       <c r="C512">
-        <v>423</v>
+        <v>274</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.2">
@@ -10884,7 +10884,7 @@
         <v>480</v>
       </c>
       <c r="C513">
-        <v>362</v>
+        <v>164</v>
       </c>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.2">
@@ -10892,7 +10892,7 @@
         <v>481</v>
       </c>
       <c r="C514">
-        <v>258</v>
+        <v>348</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.2">
@@ -10900,7 +10900,7 @@
         <v>482</v>
       </c>
       <c r="C515">
-        <v>350</v>
+        <v>263</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
@@ -10908,7 +10908,7 @@
         <v>483</v>
       </c>
       <c r="C516">
-        <v>399</v>
+        <v>365</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.2">
@@ -10916,7 +10916,7 @@
         <v>484</v>
       </c>
       <c r="C517">
-        <v>376</v>
+        <v>290</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.2">
@@ -10924,7 +10924,7 @@
         <v>485</v>
       </c>
       <c r="C518">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.2">
@@ -10932,7 +10932,7 @@
         <v>486</v>
       </c>
       <c r="C519">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.2">
@@ -10940,7 +10940,7 @@
         <v>487</v>
       </c>
       <c r="C520">
-        <v>388</v>
+        <v>316</v>
       </c>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.2">
@@ -10948,7 +10948,7 @@
         <v>488</v>
       </c>
       <c r="C521">
-        <v>367</v>
+        <v>191</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.2">
@@ -10956,7 +10956,7 @@
         <v>489</v>
       </c>
       <c r="C522">
-        <v>275</v>
+        <v>322</v>
       </c>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
         <v>490</v>
       </c>
       <c r="C523">
-        <v>249</v>
+        <v>399</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.2">
@@ -10972,7 +10972,7 @@
         <v>491</v>
       </c>
       <c r="C524">
-        <v>216</v>
+        <v>308</v>
       </c>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.2">
@@ -10980,7 +10980,7 @@
         <v>492</v>
       </c>
       <c r="C525">
-        <v>383</v>
+        <v>322</v>
       </c>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.2">
@@ -10988,7 +10988,7 @@
         <v>493</v>
       </c>
       <c r="C526">
-        <v>262</v>
+        <v>347</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.2">
@@ -10996,7 +10996,7 @@
         <v>494</v>
       </c>
       <c r="C527">
-        <v>257</v>
+        <v>200</v>
       </c>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.2">
@@ -11004,7 +11004,7 @@
         <v>495</v>
       </c>
       <c r="C528">
-        <v>437</v>
+        <v>358</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.2">
@@ -11012,7 +11012,7 @@
         <v>496</v>
       </c>
       <c r="C529">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.2">
@@ -11020,7 +11020,7 @@
         <v>497</v>
       </c>
       <c r="C530">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.2">
@@ -11028,7 +11028,7 @@
         <v>498</v>
       </c>
       <c r="C531">
-        <v>338</v>
+        <v>386</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.2">
@@ -11036,7 +11036,7 @@
         <v>499</v>
       </c>
       <c r="C532">
-        <v>301</v>
+        <v>335</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.2">
@@ -11044,7 +11044,7 @@
         <v>500</v>
       </c>
       <c r="C533">
-        <v>193</v>
+        <v>396</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.2">
@@ -11052,7 +11052,7 @@
         <v>501</v>
       </c>
       <c r="C534">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.2">
@@ -11060,7 +11060,7 @@
         <v>502</v>
       </c>
       <c r="C535">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.2">
@@ -11068,7 +11068,7 @@
         <v>503</v>
       </c>
       <c r="C536">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.2">
@@ -11076,7 +11076,7 @@
         <v>504</v>
       </c>
       <c r="C537">
-        <v>275</v>
+        <v>187</v>
       </c>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.2">
@@ -11084,7 +11084,7 @@
         <v>505</v>
       </c>
       <c r="C538">
-        <v>238</v>
+        <v>285</v>
       </c>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.2">
@@ -11092,7 +11092,7 @@
         <v>506</v>
       </c>
       <c r="C539">
-        <v>251</v>
+        <v>335</v>
       </c>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.2">
@@ -11100,7 +11100,7 @@
         <v>507</v>
       </c>
       <c r="C540">
-        <v>407</v>
+        <v>322</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.2">
@@ -11108,7 +11108,7 @@
         <v>508</v>
       </c>
       <c r="C541">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.2">
@@ -11116,7 +11116,7 @@
         <v>509</v>
       </c>
       <c r="C542">
-        <v>274</v>
+        <v>337</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.2">
@@ -11124,7 +11124,7 @@
         <v>510</v>
       </c>
       <c r="C543">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.2">
@@ -11132,7 +11132,7 @@
         <v>511</v>
       </c>
       <c r="C544">
-        <v>314</v>
+        <v>360</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.2">
@@ -11140,7 +11140,7 @@
         <v>512</v>
       </c>
       <c r="C545">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.2">
@@ -11148,7 +11148,7 @@
         <v>513</v>
       </c>
       <c r="C546">
-        <v>344</v>
+        <v>385</v>
       </c>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.2">
@@ -11156,7 +11156,7 @@
         <v>514</v>
       </c>
       <c r="C547">
-        <v>370</v>
+        <v>329</v>
       </c>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.2">
@@ -11164,7 +11164,7 @@
         <v>515</v>
       </c>
       <c r="C548">
-        <v>305</v>
+        <v>353</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.2">
@@ -11172,7 +11172,7 @@
         <v>516</v>
       </c>
       <c r="C549">
-        <v>408</v>
+        <v>347</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.2">
@@ -11180,7 +11180,7 @@
         <v>517</v>
       </c>
       <c r="C550">
-        <v>313</v>
+        <v>242</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.2">
@@ -11188,7 +11188,7 @@
         <v>518</v>
       </c>
       <c r="C551">
-        <v>309</v>
+        <v>355</v>
       </c>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.2">
@@ -11196,7 +11196,7 @@
         <v>519</v>
       </c>
       <c r="C552">
-        <v>384</v>
+        <v>286</v>
       </c>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.2">
@@ -11204,7 +11204,7 @@
         <v>520</v>
       </c>
       <c r="C553">
-        <v>288</v>
+        <v>333</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.2">
@@ -11212,7 +11212,7 @@
         <v>521</v>
       </c>
       <c r="C554">
-        <v>292</v>
+        <v>193</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.2">
@@ -11220,7 +11220,7 @@
         <v>522</v>
       </c>
       <c r="C555">
-        <v>467</v>
+        <v>311</v>
       </c>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.2">
@@ -11228,7 +11228,7 @@
         <v>523</v>
       </c>
       <c r="C556">
-        <v>336</v>
+        <v>150</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.2">
@@ -11236,7 +11236,7 @@
         <v>524</v>
       </c>
       <c r="C557">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.2">
@@ -11244,7 +11244,7 @@
         <v>525</v>
       </c>
       <c r="C558">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.2">
@@ -11252,7 +11252,7 @@
         <v>526</v>
       </c>
       <c r="C559">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.2">
@@ -11260,7 +11260,7 @@
         <v>527</v>
       </c>
       <c r="C560">
-        <v>338</v>
+        <v>271</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.2">
@@ -11268,7 +11268,7 @@
         <v>528</v>
       </c>
       <c r="C561">
-        <v>221</v>
+        <v>434</v>
       </c>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.2">
@@ -11276,7 +11276,7 @@
         <v>529</v>
       </c>
       <c r="C562">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.2">
@@ -11284,7 +11284,7 @@
         <v>530</v>
       </c>
       <c r="C563">
-        <v>351</v>
+        <v>296</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.2">
@@ -11292,7 +11292,7 @@
         <v>531</v>
       </c>
       <c r="C564">
-        <v>384</v>
+        <v>289</v>
       </c>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.2">
@@ -11300,7 +11300,7 @@
         <v>532</v>
       </c>
       <c r="C565">
-        <v>278</v>
+        <v>364</v>
       </c>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.2">
@@ -11308,7 +11308,7 @@
         <v>533</v>
       </c>
       <c r="C566">
-        <v>222</v>
+        <v>343</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.2">
@@ -11316,7 +11316,7 @@
         <v>534</v>
       </c>
       <c r="C567">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.2">
@@ -11324,7 +11324,7 @@
         <v>535</v>
       </c>
       <c r="C568">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.2">
@@ -11332,7 +11332,7 @@
         <v>536</v>
       </c>
       <c r="C569">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.2">
@@ -11340,7 +11340,7 @@
         <v>537</v>
       </c>
       <c r="C570">
-        <v>414</v>
+        <v>306</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.2">
@@ -11348,7 +11348,7 @@
         <v>538</v>
       </c>
       <c r="C571">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.2">
@@ -11356,7 +11356,7 @@
         <v>539</v>
       </c>
       <c r="C572">
-        <v>301</v>
+        <v>365</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.2">
@@ -11364,7 +11364,7 @@
         <v>540</v>
       </c>
       <c r="C573">
-        <v>267</v>
+        <v>193</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.2">
@@ -11372,7 +11372,7 @@
         <v>541</v>
       </c>
       <c r="C574">
-        <v>283</v>
+        <v>359</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.2">
@@ -11380,7 +11380,7 @@
         <v>542</v>
       </c>
       <c r="C575">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.2">
@@ -11388,7 +11388,7 @@
         <v>543</v>
       </c>
       <c r="C576">
-        <v>288</v>
+        <v>345</v>
       </c>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.2">
@@ -11396,7 +11396,7 @@
         <v>544</v>
       </c>
       <c r="C577">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.2">
@@ -11404,7 +11404,7 @@
         <v>545</v>
       </c>
       <c r="C578">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.2">
@@ -11412,7 +11412,7 @@
         <v>546</v>
       </c>
       <c r="C579">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.2">
@@ -11420,7 +11420,7 @@
         <v>547</v>
       </c>
       <c r="C580">
-        <v>247</v>
+        <v>294</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.2">
@@ -11428,7 +11428,7 @@
         <v>548</v>
       </c>
       <c r="C581">
-        <v>417</v>
+        <v>352</v>
       </c>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.2">
@@ -11436,7 +11436,7 @@
         <v>549</v>
       </c>
       <c r="C582">
-        <v>228</v>
+        <v>376</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.2">
@@ -11444,7 +11444,7 @@
         <v>550</v>
       </c>
       <c r="C583">
-        <v>366</v>
+        <v>275</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.2">
@@ -11452,7 +11452,7 @@
         <v>551</v>
       </c>
       <c r="C584">
-        <v>361</v>
+        <v>282</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.2">
@@ -11460,7 +11460,7 @@
         <v>552</v>
       </c>
       <c r="C585">
-        <v>255</v>
+        <v>379</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.2">
@@ -11468,7 +11468,7 @@
         <v>553</v>
       </c>
       <c r="C586">
-        <v>346</v>
+        <v>288</v>
       </c>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.2">
@@ -11476,7 +11476,7 @@
         <v>554</v>
       </c>
       <c r="C587">
-        <v>324</v>
+        <v>203</v>
       </c>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.2">
@@ -11484,7 +11484,7 @@
         <v>555</v>
       </c>
       <c r="C588">
-        <v>374</v>
+        <v>205</v>
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.2">
@@ -11492,7 +11492,7 @@
         <v>556</v>
       </c>
       <c r="C589">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.2">
@@ -11500,7 +11500,7 @@
         <v>557</v>
       </c>
       <c r="C590">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.2">
@@ -11508,7 +11508,7 @@
         <v>558</v>
       </c>
       <c r="C591">
-        <v>252</v>
+        <v>359</v>
       </c>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.2">
@@ -11516,7 +11516,7 @@
         <v>559</v>
       </c>
       <c r="C592">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.2">
@@ -11524,7 +11524,7 @@
         <v>560</v>
       </c>
       <c r="C593">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="594" spans="2:3" x14ac:dyDescent="0.2">
@@ -11532,7 +11532,7 @@
         <v>561</v>
       </c>
       <c r="C594">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.2">
@@ -11540,7 +11540,7 @@
         <v>562</v>
       </c>
       <c r="C595">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.2">
@@ -11548,7 +11548,7 @@
         <v>563</v>
       </c>
       <c r="C596">
-        <v>318</v>
+        <v>276</v>
       </c>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.2">
@@ -11556,7 +11556,7 @@
         <v>564</v>
       </c>
       <c r="C597">
-        <v>167</v>
+        <v>290</v>
       </c>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.2">
@@ -11564,7 +11564,7 @@
         <v>565</v>
       </c>
       <c r="C598">
-        <v>422</v>
+        <v>387</v>
       </c>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.2">
@@ -11572,7 +11572,7 @@
         <v>566</v>
       </c>
       <c r="C599">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.2">
@@ -11580,7 +11580,7 @@
         <v>567</v>
       </c>
       <c r="C600">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.2">
@@ -11596,7 +11596,7 @@
         <v>569</v>
       </c>
       <c r="C602">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.2">
@@ -11604,7 +11604,7 @@
         <v>570</v>
       </c>
       <c r="C603">
-        <v>318</v>
+        <v>271</v>
       </c>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.2">
@@ -11612,7 +11612,7 @@
         <v>571</v>
       </c>
       <c r="C604">
-        <v>299</v>
+        <v>435</v>
       </c>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.2">
@@ -11620,7 +11620,7 @@
         <v>572</v>
       </c>
       <c r="C605">
-        <v>396</v>
+        <v>311</v>
       </c>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.2">
@@ -11628,7 +11628,7 @@
         <v>573</v>
       </c>
       <c r="C606">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.2">
@@ -11636,7 +11636,7 @@
         <v>574</v>
       </c>
       <c r="C607">
-        <v>268</v>
+        <v>417</v>
       </c>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.2">
@@ -11644,7 +11644,7 @@
         <v>575</v>
       </c>
       <c r="C608">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.2">
@@ -11652,7 +11652,7 @@
         <v>576</v>
       </c>
       <c r="C609">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.2">
@@ -11660,7 +11660,7 @@
         <v>577</v>
       </c>
       <c r="C610">
-        <v>230</v>
+        <v>340</v>
       </c>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.2">
@@ -11668,7 +11668,7 @@
         <v>578</v>
       </c>
       <c r="C611">
-        <v>348</v>
+        <v>280</v>
       </c>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.2">
@@ -11676,7 +11676,7 @@
         <v>579</v>
       </c>
       <c r="C612">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="613" spans="2:3" x14ac:dyDescent="0.2">
@@ -11684,7 +11684,7 @@
         <v>580</v>
       </c>
       <c r="C613">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="614" spans="2:3" x14ac:dyDescent="0.2">
@@ -11692,7 +11692,7 @@
         <v>581</v>
       </c>
       <c r="C614">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="615" spans="2:3" x14ac:dyDescent="0.2">
@@ -11700,7 +11700,7 @@
         <v>582</v>
       </c>
       <c r="C615">
-        <v>340</v>
+        <v>262</v>
       </c>
     </row>
     <row r="616" spans="2:3" x14ac:dyDescent="0.2">
@@ -11708,7 +11708,7 @@
         <v>583</v>
       </c>
       <c r="C616">
-        <v>355</v>
+        <v>421</v>
       </c>
     </row>
     <row r="617" spans="2:3" x14ac:dyDescent="0.2">
@@ -11716,7 +11716,7 @@
         <v>584</v>
       </c>
       <c r="C617">
-        <v>333</v>
+        <v>356</v>
       </c>
     </row>
     <row r="618" spans="2:3" x14ac:dyDescent="0.2">
@@ -11724,7 +11724,7 @@
         <v>585</v>
       </c>
       <c r="C618">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="619" spans="2:3" x14ac:dyDescent="0.2">
@@ -11740,7 +11740,7 @@
         <v>587</v>
       </c>
       <c r="C620">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="621" spans="2:3" x14ac:dyDescent="0.2">
@@ -11748,7 +11748,7 @@
         <v>588</v>
       </c>
       <c r="C621">
-        <v>273</v>
+        <v>394</v>
       </c>
     </row>
     <row r="622" spans="2:3" x14ac:dyDescent="0.2">
@@ -11756,7 +11756,7 @@
         <v>589</v>
       </c>
       <c r="C622">
-        <v>395</v>
+        <v>326</v>
       </c>
     </row>
     <row r="623" spans="2:3" x14ac:dyDescent="0.2">
@@ -11764,7 +11764,7 @@
         <v>590</v>
       </c>
       <c r="C623">
-        <v>233</v>
+        <v>366</v>
       </c>
     </row>
     <row r="624" spans="2:3" x14ac:dyDescent="0.2">
@@ -11772,7 +11772,7 @@
         <v>591</v>
       </c>
       <c r="C624">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="625" spans="2:3" x14ac:dyDescent="0.2">
@@ -11780,7 +11780,7 @@
         <v>592</v>
       </c>
       <c r="C625">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.2">
@@ -11788,7 +11788,7 @@
         <v>593</v>
       </c>
       <c r="C626">
-        <v>299</v>
+        <v>236</v>
       </c>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.2">
@@ -11796,7 +11796,7 @@
         <v>594</v>
       </c>
       <c r="C627">
-        <v>304</v>
+        <v>356</v>
       </c>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.2">
@@ -11804,7 +11804,7 @@
         <v>595</v>
       </c>
       <c r="C628">
-        <v>279</v>
+        <v>374</v>
       </c>
     </row>
     <row r="629" spans="2:3" x14ac:dyDescent="0.2">
@@ -11812,7 +11812,7 @@
         <v>596</v>
       </c>
       <c r="C629">
-        <v>331</v>
+        <v>387</v>
       </c>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.2">
@@ -11820,7 +11820,7 @@
         <v>597</v>
       </c>
       <c r="C630">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="631" spans="2:3" x14ac:dyDescent="0.2">
@@ -11828,7 +11828,7 @@
         <v>598</v>
       </c>
       <c r="C631">
-        <v>381</v>
+        <v>219</v>
       </c>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.2">
@@ -11836,7 +11836,7 @@
         <v>599</v>
       </c>
       <c r="C632">
-        <v>294</v>
+        <v>382</v>
       </c>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.2">
@@ -11844,7 +11844,7 @@
         <v>600</v>
       </c>
       <c r="C633">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
         <v>601</v>
       </c>
       <c r="C634">
-        <v>351</v>
+        <v>243</v>
       </c>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.2">
@@ -11860,7 +11860,7 @@
         <v>602</v>
       </c>
       <c r="C635">
-        <v>264</v>
+        <v>320</v>
       </c>
     </row>
     <row r="636" spans="2:3" x14ac:dyDescent="0.2">
@@ -11868,7 +11868,7 @@
         <v>603</v>
       </c>
       <c r="C636">
-        <v>340</v>
+        <v>442</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.2">
@@ -11876,7 +11876,7 @@
         <v>604</v>
       </c>
       <c r="C637">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.2">
@@ -11884,7 +11884,7 @@
         <v>605</v>
       </c>
       <c r="C638">
-        <v>272</v>
+        <v>183</v>
       </c>
     </row>
     <row r="639" spans="2:3" x14ac:dyDescent="0.2">
@@ -11892,7 +11892,7 @@
         <v>606</v>
       </c>
       <c r="C639">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="640" spans="2:3" x14ac:dyDescent="0.2">
@@ -11900,7 +11900,7 @@
         <v>607</v>
       </c>
       <c r="C640">
-        <v>262</v>
+        <v>381</v>
       </c>
     </row>
     <row r="641" spans="2:3" x14ac:dyDescent="0.2">
@@ -11908,7 +11908,7 @@
         <v>608</v>
       </c>
       <c r="C641">
-        <v>317</v>
+        <v>367</v>
       </c>
     </row>
     <row r="642" spans="2:3" x14ac:dyDescent="0.2">
@@ -11916,7 +11916,7 @@
         <v>609</v>
       </c>
       <c r="C642">
-        <v>349</v>
+        <v>412</v>
       </c>
     </row>
     <row r="643" spans="2:3" x14ac:dyDescent="0.2">
@@ -11924,7 +11924,7 @@
         <v>610</v>
       </c>
       <c r="C643">
-        <v>416</v>
+        <v>387</v>
       </c>
     </row>
     <row r="644" spans="2:3" x14ac:dyDescent="0.2">
@@ -11932,7 +11932,7 @@
         <v>611</v>
       </c>
       <c r="C644">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="645" spans="2:3" x14ac:dyDescent="0.2">
@@ -11940,7 +11940,7 @@
         <v>612</v>
       </c>
       <c r="C645">
-        <v>348</v>
+        <v>235</v>
       </c>
     </row>
     <row r="646" spans="2:3" x14ac:dyDescent="0.2">
@@ -11948,7 +11948,7 @@
         <v>613</v>
       </c>
       <c r="C646">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="647" spans="2:3" x14ac:dyDescent="0.2">
@@ -11956,7 +11956,7 @@
         <v>614</v>
       </c>
       <c r="C647">
-        <v>370</v>
+        <v>274</v>
       </c>
     </row>
     <row r="648" spans="2:3" x14ac:dyDescent="0.2">
@@ -11964,7 +11964,7 @@
         <v>615</v>
       </c>
       <c r="C648">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="649" spans="2:3" x14ac:dyDescent="0.2">
@@ -11972,7 +11972,7 @@
         <v>616</v>
       </c>
       <c r="C649">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="650" spans="2:3" x14ac:dyDescent="0.2">
@@ -11980,7 +11980,7 @@
         <v>617</v>
       </c>
       <c r="C650">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="651" spans="2:3" x14ac:dyDescent="0.2">
@@ -11988,7 +11988,7 @@
         <v>618</v>
       </c>
       <c r="C651">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="652" spans="2:3" x14ac:dyDescent="0.2">
@@ -11996,7 +11996,7 @@
         <v>619</v>
       </c>
       <c r="C652">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="653" spans="2:3" x14ac:dyDescent="0.2">
@@ -12004,7 +12004,7 @@
         <v>620</v>
       </c>
       <c r="C653">
-        <v>403</v>
+        <v>345</v>
       </c>
     </row>
     <row r="654" spans="2:3" x14ac:dyDescent="0.2">
@@ -12012,7 +12012,7 @@
         <v>621</v>
       </c>
       <c r="C654">
-        <v>229</v>
+        <v>274</v>
       </c>
     </row>
     <row r="655" spans="2:3" x14ac:dyDescent="0.2">
@@ -12020,7 +12020,7 @@
         <v>622</v>
       </c>
       <c r="C655">
-        <v>270</v>
+        <v>331</v>
       </c>
     </row>
     <row r="656" spans="2:3" x14ac:dyDescent="0.2">
@@ -12028,7 +12028,7 @@
         <v>623</v>
       </c>
       <c r="C656">
-        <v>231</v>
+        <v>378</v>
       </c>
     </row>
     <row r="657" spans="2:3" x14ac:dyDescent="0.2">
@@ -12036,7 +12036,7 @@
         <v>624</v>
       </c>
       <c r="C657">
-        <v>337</v>
+        <v>262</v>
       </c>
     </row>
     <row r="658" spans="2:3" x14ac:dyDescent="0.2">
@@ -12044,7 +12044,7 @@
         <v>625</v>
       </c>
       <c r="C658">
-        <v>329</v>
+        <v>224</v>
       </c>
     </row>
     <row r="659" spans="2:3" x14ac:dyDescent="0.2">
@@ -12052,7 +12052,7 @@
         <v>626</v>
       </c>
       <c r="C659">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="660" spans="2:3" x14ac:dyDescent="0.2">
@@ -12060,7 +12060,7 @@
         <v>627</v>
       </c>
       <c r="C660">
-        <v>271</v>
+        <v>305</v>
       </c>
     </row>
     <row r="661" spans="2:3" x14ac:dyDescent="0.2">
@@ -12068,7 +12068,7 @@
         <v>628</v>
       </c>
       <c r="C661">
-        <v>126</v>
+        <v>324</v>
       </c>
     </row>
     <row r="662" spans="2:3" x14ac:dyDescent="0.2">
@@ -12076,7 +12076,7 @@
         <v>629</v>
       </c>
       <c r="C662">
-        <v>232</v>
+        <v>285</v>
       </c>
     </row>
     <row r="663" spans="2:3" x14ac:dyDescent="0.2">
@@ -12084,7 +12084,7 @@
         <v>630</v>
       </c>
       <c r="C663">
-        <v>258</v>
+        <v>338</v>
       </c>
     </row>
     <row r="664" spans="2:3" x14ac:dyDescent="0.2">
@@ -12092,7 +12092,7 @@
         <v>631</v>
       </c>
       <c r="C664">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="665" spans="2:3" x14ac:dyDescent="0.2">
@@ -12100,7 +12100,7 @@
         <v>632</v>
       </c>
       <c r="C665">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="666" spans="2:3" x14ac:dyDescent="0.2">
@@ -12108,7 +12108,7 @@
         <v>633</v>
       </c>
       <c r="C666">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="667" spans="2:3" x14ac:dyDescent="0.2">
@@ -12116,7 +12116,7 @@
         <v>634</v>
       </c>
       <c r="C667">
-        <v>388</v>
+        <v>509</v>
       </c>
     </row>
     <row r="668" spans="2:3" x14ac:dyDescent="0.2">
@@ -12124,7 +12124,7 @@
         <v>635</v>
       </c>
       <c r="C668">
-        <v>348</v>
+        <v>250</v>
       </c>
     </row>
     <row r="669" spans="2:3" x14ac:dyDescent="0.2">
@@ -12132,7 +12132,7 @@
         <v>636</v>
       </c>
       <c r="C669">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="670" spans="2:3" x14ac:dyDescent="0.2">
@@ -12140,7 +12140,7 @@
         <v>637</v>
       </c>
       <c r="C670">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="671" spans="2:3" x14ac:dyDescent="0.2">
@@ -12148,7 +12148,7 @@
         <v>638</v>
       </c>
       <c r="C671">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="672" spans="2:3" x14ac:dyDescent="0.2">
@@ -12156,7 +12156,7 @@
         <v>639</v>
       </c>
       <c r="C672">
-        <v>368</v>
+        <v>285</v>
       </c>
     </row>
     <row r="673" spans="2:3" x14ac:dyDescent="0.2">
@@ -12164,7 +12164,7 @@
         <v>640</v>
       </c>
       <c r="C673">
-        <v>316</v>
+        <v>256</v>
       </c>
     </row>
     <row r="674" spans="2:3" x14ac:dyDescent="0.2">
@@ -12172,7 +12172,7 @@
         <v>641</v>
       </c>
       <c r="C674">
-        <v>342</v>
+        <v>271</v>
       </c>
     </row>
     <row r="675" spans="2:3" x14ac:dyDescent="0.2">
@@ -12180,7 +12180,7 @@
         <v>642</v>
       </c>
       <c r="C675">
-        <v>350</v>
+        <v>180</v>
       </c>
     </row>
     <row r="676" spans="2:3" x14ac:dyDescent="0.2">
@@ -12188,7 +12188,7 @@
         <v>643</v>
       </c>
       <c r="C676">
-        <v>426</v>
+        <v>255</v>
       </c>
     </row>
     <row r="677" spans="2:3" x14ac:dyDescent="0.2">
@@ -12196,7 +12196,7 @@
         <v>644</v>
       </c>
       <c r="C677">
-        <v>332</v>
+        <v>247</v>
       </c>
     </row>
     <row r="678" spans="2:3" x14ac:dyDescent="0.2">
@@ -12204,7 +12204,7 @@
         <v>645</v>
       </c>
       <c r="C678">
-        <v>378</v>
+        <v>344</v>
       </c>
     </row>
     <row r="679" spans="2:3" x14ac:dyDescent="0.2">
@@ -12212,7 +12212,7 @@
         <v>646</v>
       </c>
       <c r="C679">
-        <v>411</v>
+        <v>283</v>
       </c>
     </row>
     <row r="680" spans="2:3" x14ac:dyDescent="0.2">
@@ -12220,7 +12220,7 @@
         <v>647</v>
       </c>
       <c r="C680">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="681" spans="2:3" x14ac:dyDescent="0.2">
@@ -12228,7 +12228,7 @@
         <v>648</v>
       </c>
       <c r="C681">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="682" spans="2:3" x14ac:dyDescent="0.2">
@@ -12236,7 +12236,7 @@
         <v>649</v>
       </c>
       <c r="C682">
-        <v>354</v>
+        <v>275</v>
       </c>
     </row>
     <row r="683" spans="2:3" x14ac:dyDescent="0.2">
@@ -12244,7 +12244,7 @@
         <v>650</v>
       </c>
       <c r="C683">
-        <v>354</v>
+        <v>308</v>
       </c>
     </row>
     <row r="684" spans="2:3" x14ac:dyDescent="0.2">
@@ -12252,7 +12252,7 @@
         <v>651</v>
       </c>
       <c r="C684">
-        <v>205</v>
+        <v>382</v>
       </c>
     </row>
     <row r="685" spans="2:3" x14ac:dyDescent="0.2">
@@ -12260,7 +12260,7 @@
         <v>652</v>
       </c>
       <c r="C685">
-        <v>371</v>
+        <v>406</v>
       </c>
     </row>
     <row r="686" spans="2:3" x14ac:dyDescent="0.2">
@@ -12268,7 +12268,7 @@
         <v>653</v>
       </c>
       <c r="C686">
-        <v>278</v>
+        <v>387</v>
       </c>
     </row>
     <row r="687" spans="2:3" x14ac:dyDescent="0.2">
@@ -12276,7 +12276,7 @@
         <v>654</v>
       </c>
       <c r="C687">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="688" spans="2:3" x14ac:dyDescent="0.2">
@@ -12284,7 +12284,7 @@
         <v>655</v>
       </c>
       <c r="C688">
-        <v>243</v>
+        <v>335</v>
       </c>
     </row>
     <row r="689" spans="2:3" x14ac:dyDescent="0.2">
@@ -12292,7 +12292,7 @@
         <v>656</v>
       </c>
       <c r="C689">
-        <v>378</v>
+        <v>270</v>
       </c>
     </row>
     <row r="690" spans="2:3" x14ac:dyDescent="0.2">
@@ -12300,7 +12300,7 @@
         <v>657</v>
       </c>
       <c r="C690">
-        <v>304</v>
+        <v>381</v>
       </c>
     </row>
     <row r="691" spans="2:3" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
         <v>658</v>
       </c>
       <c r="C691">
-        <v>272</v>
+        <v>373</v>
       </c>
     </row>
     <row r="692" spans="2:3" x14ac:dyDescent="0.2">
@@ -12316,7 +12316,7 @@
         <v>659</v>
       </c>
       <c r="C692">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="693" spans="2:3" x14ac:dyDescent="0.2">
@@ -12324,7 +12324,7 @@
         <v>660</v>
       </c>
       <c r="C693">
-        <v>343</v>
+        <v>284</v>
       </c>
     </row>
     <row r="694" spans="2:3" x14ac:dyDescent="0.2">
@@ -12332,7 +12332,7 @@
         <v>661</v>
       </c>
       <c r="C694">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="695" spans="2:3" x14ac:dyDescent="0.2">
@@ -12340,7 +12340,7 @@
         <v>662</v>
       </c>
       <c r="C695">
-        <v>391</v>
+        <v>265</v>
       </c>
     </row>
     <row r="696" spans="2:3" x14ac:dyDescent="0.2">
@@ -12348,7 +12348,7 @@
         <v>663</v>
       </c>
       <c r="C696">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="697" spans="2:3" x14ac:dyDescent="0.2">
@@ -12356,7 +12356,7 @@
         <v>664</v>
       </c>
       <c r="C697">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="698" spans="2:3" x14ac:dyDescent="0.2">
@@ -12364,7 +12364,7 @@
         <v>665</v>
       </c>
       <c r="C698">
-        <v>291</v>
+        <v>202</v>
       </c>
     </row>
     <row r="699" spans="2:3" x14ac:dyDescent="0.2">
@@ -12372,7 +12372,7 @@
         <v>666</v>
       </c>
       <c r="C699">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="700" spans="2:3" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
         <v>667</v>
       </c>
       <c r="C700">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="701" spans="2:3" x14ac:dyDescent="0.2">
@@ -12388,7 +12388,7 @@
         <v>668</v>
       </c>
       <c r="C701">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="702" spans="2:3" x14ac:dyDescent="0.2">
@@ -12396,7 +12396,7 @@
         <v>669</v>
       </c>
       <c r="C702">
-        <v>219</v>
+        <v>310</v>
       </c>
     </row>
     <row r="703" spans="2:3" x14ac:dyDescent="0.2">
@@ -12404,7 +12404,7 @@
         <v>670</v>
       </c>
       <c r="C703">
-        <v>265</v>
+        <v>412</v>
       </c>
     </row>
     <row r="704" spans="2:3" x14ac:dyDescent="0.2">
@@ -12412,7 +12412,7 @@
         <v>671</v>
       </c>
       <c r="C704">
-        <v>295</v>
+        <v>224</v>
       </c>
     </row>
     <row r="705" spans="2:3" x14ac:dyDescent="0.2">
@@ -12420,7 +12420,7 @@
         <v>672</v>
       </c>
       <c r="C705">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="706" spans="2:3" x14ac:dyDescent="0.2">
@@ -12428,7 +12428,7 @@
         <v>673</v>
       </c>
       <c r="C706">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="707" spans="2:3" x14ac:dyDescent="0.2">
@@ -12436,7 +12436,7 @@
         <v>674</v>
       </c>
       <c r="C707">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="708" spans="2:3" x14ac:dyDescent="0.2">
@@ -12444,7 +12444,7 @@
         <v>675</v>
       </c>
       <c r="C708">
-        <v>257</v>
+        <v>337</v>
       </c>
     </row>
     <row r="709" spans="2:3" x14ac:dyDescent="0.2">
@@ -12452,7 +12452,7 @@
         <v>676</v>
       </c>
       <c r="C709">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="710" spans="2:3" x14ac:dyDescent="0.2">
@@ -12460,7 +12460,7 @@
         <v>677</v>
       </c>
       <c r="C710">
-        <v>260</v>
+        <v>313</v>
       </c>
     </row>
     <row r="711" spans="2:3" x14ac:dyDescent="0.2">
@@ -12468,7 +12468,7 @@
         <v>678</v>
       </c>
       <c r="C711">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="712" spans="2:3" x14ac:dyDescent="0.2">
@@ -12476,7 +12476,7 @@
         <v>679</v>
       </c>
       <c r="C712">
-        <v>200</v>
+        <v>289</v>
       </c>
     </row>
     <row r="713" spans="2:3" x14ac:dyDescent="0.2">
@@ -12484,7 +12484,7 @@
         <v>680</v>
       </c>
       <c r="C713">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="714" spans="2:3" x14ac:dyDescent="0.2">
@@ -12492,7 +12492,7 @@
         <v>681</v>
       </c>
       <c r="C714">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="715" spans="2:3" x14ac:dyDescent="0.2">
@@ -12500,7 +12500,7 @@
         <v>682</v>
       </c>
       <c r="C715">
-        <v>261</v>
+        <v>318</v>
       </c>
     </row>
     <row r="716" spans="2:3" x14ac:dyDescent="0.2">
@@ -12508,7 +12508,7 @@
         <v>683</v>
       </c>
       <c r="C716">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="717" spans="2:3" x14ac:dyDescent="0.2">
@@ -12516,7 +12516,7 @@
         <v>684</v>
       </c>
       <c r="C717">
-        <v>335</v>
+        <v>438</v>
       </c>
     </row>
     <row r="718" spans="2:3" x14ac:dyDescent="0.2">
@@ -12524,7 +12524,7 @@
         <v>685</v>
       </c>
       <c r="C718">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="719" spans="2:3" x14ac:dyDescent="0.2">
@@ -12532,7 +12532,7 @@
         <v>686</v>
       </c>
       <c r="C719">
-        <v>414</v>
+        <v>330</v>
       </c>
     </row>
     <row r="720" spans="2:3" x14ac:dyDescent="0.2">
@@ -12540,7 +12540,7 @@
         <v>687</v>
       </c>
       <c r="C720">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="721" spans="2:3" x14ac:dyDescent="0.2">
@@ -12548,7 +12548,7 @@
         <v>688</v>
       </c>
       <c r="C721">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="722" spans="2:3" x14ac:dyDescent="0.2">
@@ -12556,7 +12556,7 @@
         <v>689</v>
       </c>
       <c r="C722">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="723" spans="2:3" x14ac:dyDescent="0.2">
@@ -12564,7 +12564,7 @@
         <v>690</v>
       </c>
       <c r="C723">
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="724" spans="2:3" x14ac:dyDescent="0.2">
@@ -12572,7 +12572,7 @@
         <v>691</v>
       </c>
       <c r="C724">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="725" spans="2:3" x14ac:dyDescent="0.2">
@@ -12580,7 +12580,7 @@
         <v>692</v>
       </c>
       <c r="C725">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="726" spans="2:3" x14ac:dyDescent="0.2">
@@ -12588,7 +12588,7 @@
         <v>693</v>
       </c>
       <c r="C726">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="727" spans="2:3" x14ac:dyDescent="0.2">
@@ -12596,7 +12596,7 @@
         <v>694</v>
       </c>
       <c r="C727">
-        <v>390</v>
+        <v>327</v>
       </c>
     </row>
     <row r="728" spans="2:3" x14ac:dyDescent="0.2">
@@ -12604,7 +12604,7 @@
         <v>695</v>
       </c>
       <c r="C728">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="729" spans="2:3" x14ac:dyDescent="0.2">
@@ -12612,7 +12612,7 @@
         <v>696</v>
       </c>
       <c r="C729">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="730" spans="2:3" x14ac:dyDescent="0.2">
@@ -12620,7 +12620,7 @@
         <v>697</v>
       </c>
       <c r="C730">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="731" spans="2:3" x14ac:dyDescent="0.2">
@@ -12628,7 +12628,7 @@
         <v>698</v>
       </c>
       <c r="C731">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="732" spans="2:3" x14ac:dyDescent="0.2">
@@ -12636,7 +12636,7 @@
         <v>699</v>
       </c>
       <c r="C732">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="733" spans="2:3" x14ac:dyDescent="0.2">
@@ -12644,7 +12644,7 @@
         <v>700</v>
       </c>
       <c r="C733">
-        <v>293</v>
+        <v>418</v>
       </c>
     </row>
     <row r="734" spans="2:3" x14ac:dyDescent="0.2">
@@ -12652,7 +12652,7 @@
         <v>701</v>
       </c>
       <c r="C734">
-        <v>259</v>
+        <v>314</v>
       </c>
     </row>
     <row r="735" spans="2:3" x14ac:dyDescent="0.2">
@@ -12660,7 +12660,7 @@
         <v>702</v>
       </c>
       <c r="C735">
-        <v>385</v>
+        <v>235</v>
       </c>
     </row>
     <row r="736" spans="2:3" x14ac:dyDescent="0.2">
@@ -12668,7 +12668,7 @@
         <v>703</v>
       </c>
       <c r="C736">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="737" spans="2:3" x14ac:dyDescent="0.2">
@@ -12676,7 +12676,7 @@
         <v>704</v>
       </c>
       <c r="C737">
-        <v>187</v>
+        <v>289</v>
       </c>
     </row>
     <row r="738" spans="2:3" x14ac:dyDescent="0.2">
@@ -12684,7 +12684,7 @@
         <v>705</v>
       </c>
       <c r="C738">
-        <v>314</v>
+        <v>374</v>
       </c>
     </row>
     <row r="739" spans="2:3" x14ac:dyDescent="0.2">
@@ -12692,7 +12692,7 @@
         <v>706</v>
       </c>
       <c r="C739">
-        <v>330</v>
+        <v>279</v>
       </c>
     </row>
     <row r="740" spans="2:3" x14ac:dyDescent="0.2">
@@ -12700,7 +12700,7 @@
         <v>707</v>
       </c>
       <c r="C740">
-        <v>291</v>
+        <v>421</v>
       </c>
     </row>
     <row r="741" spans="2:3" x14ac:dyDescent="0.2">
@@ -12708,7 +12708,7 @@
         <v>708</v>
       </c>
       <c r="C741">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="742" spans="2:3" x14ac:dyDescent="0.2">
@@ -12716,7 +12716,7 @@
         <v>709</v>
       </c>
       <c r="C742">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="743" spans="2:3" x14ac:dyDescent="0.2">
@@ -12724,7 +12724,7 @@
         <v>710</v>
       </c>
       <c r="C743">
-        <v>198</v>
+        <v>280</v>
       </c>
     </row>
     <row r="744" spans="2:3" x14ac:dyDescent="0.2">
@@ -12732,7 +12732,7 @@
         <v>711</v>
       </c>
       <c r="C744">
-        <v>195</v>
+        <v>375</v>
       </c>
     </row>
     <row r="745" spans="2:3" x14ac:dyDescent="0.2">
@@ -12740,7 +12740,7 @@
         <v>712</v>
       </c>
       <c r="C745">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="746" spans="2:3" x14ac:dyDescent="0.2">
@@ -12748,7 +12748,7 @@
         <v>713</v>
       </c>
       <c r="C746">
-        <v>331</v>
+        <v>394</v>
       </c>
     </row>
     <row r="747" spans="2:3" x14ac:dyDescent="0.2">
@@ -12756,7 +12756,7 @@
         <v>714</v>
       </c>
       <c r="C747">
-        <v>305</v>
+        <v>358</v>
       </c>
     </row>
     <row r="748" spans="2:3" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>715</v>
       </c>
       <c r="C748">
-        <v>286</v>
+        <v>427</v>
       </c>
     </row>
     <row r="749" spans="2:3" x14ac:dyDescent="0.2">
@@ -12772,7 +12772,7 @@
         <v>716</v>
       </c>
       <c r="C749">
-        <v>409</v>
+        <v>263</v>
       </c>
     </row>
     <row r="750" spans="2:3" x14ac:dyDescent="0.2">
@@ -12780,7 +12780,7 @@
         <v>717</v>
       </c>
       <c r="C750">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="751" spans="2:3" x14ac:dyDescent="0.2">
@@ -12788,7 +12788,7 @@
         <v>718</v>
       </c>
       <c r="C751">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="752" spans="2:3" x14ac:dyDescent="0.2">
@@ -12796,7 +12796,7 @@
         <v>719</v>
       </c>
       <c r="C752">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="753" spans="2:3" x14ac:dyDescent="0.2">
@@ -12804,7 +12804,7 @@
         <v>720</v>
       </c>
       <c r="C753">
-        <v>190</v>
+        <v>419</v>
       </c>
     </row>
     <row r="754" spans="2:3" x14ac:dyDescent="0.2">
@@ -12812,7 +12812,7 @@
         <v>721</v>
       </c>
       <c r="C754">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="755" spans="2:3" x14ac:dyDescent="0.2">
@@ -12820,7 +12820,7 @@
         <v>722</v>
       </c>
       <c r="C755">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="756" spans="2:3" x14ac:dyDescent="0.2">
@@ -12828,7 +12828,7 @@
         <v>723</v>
       </c>
       <c r="C756">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="757" spans="2:3" x14ac:dyDescent="0.2">
@@ -12836,7 +12836,7 @@
         <v>724</v>
       </c>
       <c r="C757">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="758" spans="2:3" x14ac:dyDescent="0.2">
@@ -12844,7 +12844,7 @@
         <v>725</v>
       </c>
       <c r="C758">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="759" spans="2:3" x14ac:dyDescent="0.2">
@@ -12852,7 +12852,7 @@
         <v>726</v>
       </c>
       <c r="C759">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="760" spans="2:3" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>727</v>
       </c>
       <c r="C760">
-        <v>200</v>
+        <v>352</v>
       </c>
     </row>
     <row r="761" spans="2:3" x14ac:dyDescent="0.2">
@@ -12868,7 +12868,7 @@
         <v>728</v>
       </c>
       <c r="C761">
-        <v>360</v>
+        <v>407</v>
       </c>
     </row>
     <row r="762" spans="2:3" x14ac:dyDescent="0.2">
@@ -12876,7 +12876,7 @@
         <v>729</v>
       </c>
       <c r="C762">
-        <v>309</v>
+        <v>155</v>
       </c>
     </row>
     <row r="763" spans="2:3" x14ac:dyDescent="0.2">
@@ -12884,7 +12884,7 @@
         <v>730</v>
       </c>
       <c r="C763">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="764" spans="2:3" x14ac:dyDescent="0.2">
@@ -12892,7 +12892,7 @@
         <v>731</v>
       </c>
       <c r="C764">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="765" spans="2:3" x14ac:dyDescent="0.2">
@@ -12900,7 +12900,7 @@
         <v>732</v>
       </c>
       <c r="C765">
-        <v>389</v>
+        <v>297</v>
       </c>
     </row>
     <row r="766" spans="2:3" x14ac:dyDescent="0.2">
@@ -12908,7 +12908,7 @@
         <v>733</v>
       </c>
       <c r="C766">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="767" spans="2:3" x14ac:dyDescent="0.2">
@@ -12916,7 +12916,7 @@
         <v>734</v>
       </c>
       <c r="C767">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="768" spans="2:3" x14ac:dyDescent="0.2">
@@ -12924,7 +12924,7 @@
         <v>735</v>
       </c>
       <c r="C768">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="769" spans="2:3" x14ac:dyDescent="0.2">
@@ -12932,7 +12932,7 @@
         <v>736</v>
       </c>
       <c r="C769">
-        <v>415</v>
+        <v>286</v>
       </c>
     </row>
     <row r="770" spans="2:3" x14ac:dyDescent="0.2">
@@ -12940,7 +12940,7 @@
         <v>737</v>
       </c>
       <c r="C770">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="771" spans="2:3" x14ac:dyDescent="0.2">
@@ -12948,7 +12948,7 @@
         <v>738</v>
       </c>
       <c r="C771">
-        <v>272</v>
+        <v>402</v>
       </c>
     </row>
     <row r="772" spans="2:3" x14ac:dyDescent="0.2">
@@ -12956,7 +12956,7 @@
         <v>739</v>
       </c>
       <c r="C772">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="773" spans="2:3" x14ac:dyDescent="0.2">
@@ -12964,7 +12964,7 @@
         <v>740</v>
       </c>
       <c r="C773">
-        <v>315</v>
+        <v>190</v>
       </c>
     </row>
     <row r="774" spans="2:3" x14ac:dyDescent="0.2">
@@ -12972,7 +12972,7 @@
         <v>741</v>
       </c>
       <c r="C774">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="775" spans="2:3" x14ac:dyDescent="0.2">
@@ -12980,7 +12980,7 @@
         <v>742</v>
       </c>
       <c r="C775">
-        <v>362</v>
+        <v>195</v>
       </c>
     </row>
     <row r="776" spans="2:3" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
         <v>743</v>
       </c>
       <c r="C776">
-        <v>323</v>
+        <v>272</v>
       </c>
     </row>
     <row r="777" spans="2:3" x14ac:dyDescent="0.2">
@@ -12996,7 +12996,7 @@
         <v>744</v>
       </c>
       <c r="C777">
-        <v>223</v>
+        <v>290</v>
       </c>
     </row>
     <row r="778" spans="2:3" x14ac:dyDescent="0.2">
@@ -13004,7 +13004,7 @@
         <v>745</v>
       </c>
       <c r="C778">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="779" spans="2:3" x14ac:dyDescent="0.2">
@@ -13012,7 +13012,7 @@
         <v>746</v>
       </c>
       <c r="C779">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="780" spans="2:3" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
         <v>747</v>
       </c>
       <c r="C780">
-        <v>243</v>
+        <v>334</v>
       </c>
     </row>
     <row r="781" spans="2:3" x14ac:dyDescent="0.2">
@@ -13028,7 +13028,7 @@
         <v>748</v>
       </c>
       <c r="C781">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="782" spans="2:3" x14ac:dyDescent="0.2">
@@ -13036,7 +13036,7 @@
         <v>749</v>
       </c>
       <c r="C782">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="783" spans="2:3" x14ac:dyDescent="0.2">
@@ -13044,7 +13044,7 @@
         <v>750</v>
       </c>
       <c r="C783">
-        <v>473</v>
+        <v>239</v>
       </c>
     </row>
     <row r="784" spans="2:3" x14ac:dyDescent="0.2">
@@ -13052,7 +13052,7 @@
         <v>751</v>
       </c>
       <c r="C784">
-        <v>288</v>
+        <v>411</v>
       </c>
     </row>
     <row r="785" spans="2:3" x14ac:dyDescent="0.2">
@@ -13060,7 +13060,7 @@
         <v>752</v>
       </c>
       <c r="C785">
-        <v>350</v>
+        <v>268</v>
       </c>
     </row>
     <row r="786" spans="2:3" x14ac:dyDescent="0.2">
@@ -13068,7 +13068,7 @@
         <v>753</v>
       </c>
       <c r="C786">
-        <v>349</v>
+        <v>148</v>
       </c>
     </row>
     <row r="787" spans="2:3" x14ac:dyDescent="0.2">
@@ -13076,7 +13076,7 @@
         <v>754</v>
       </c>
       <c r="C787">
-        <v>246</v>
+        <v>310</v>
       </c>
     </row>
     <row r="788" spans="2:3" x14ac:dyDescent="0.2">
@@ -13084,7 +13084,7 @@
         <v>755</v>
       </c>
       <c r="C788">
-        <v>351</v>
+        <v>292</v>
       </c>
     </row>
     <row r="789" spans="2:3" x14ac:dyDescent="0.2">
@@ -13092,7 +13092,7 @@
         <v>756</v>
       </c>
       <c r="C789">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="790" spans="2:3" x14ac:dyDescent="0.2">
@@ -13100,7 +13100,7 @@
         <v>757</v>
       </c>
       <c r="C790">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="791" spans="2:3" x14ac:dyDescent="0.2">
@@ -13108,7 +13108,7 @@
         <v>758</v>
       </c>
       <c r="C791">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="792" spans="2:3" x14ac:dyDescent="0.2">
@@ -13116,7 +13116,7 @@
         <v>759</v>
       </c>
       <c r="C792">
-        <v>354</v>
+        <v>238</v>
       </c>
     </row>
     <row r="793" spans="2:3" x14ac:dyDescent="0.2">
@@ -13124,7 +13124,7 @@
         <v>760</v>
       </c>
       <c r="C793">
-        <v>214</v>
+        <v>450</v>
       </c>
     </row>
     <row r="794" spans="2:3" x14ac:dyDescent="0.2">
@@ -13132,7 +13132,7 @@
         <v>761</v>
       </c>
       <c r="C794">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="795" spans="2:3" x14ac:dyDescent="0.2">
@@ -13140,7 +13140,7 @@
         <v>762</v>
       </c>
       <c r="C795">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="796" spans="2:3" x14ac:dyDescent="0.2">
@@ -13148,7 +13148,7 @@
         <v>763</v>
       </c>
       <c r="C796">
-        <v>322</v>
+        <v>186</v>
       </c>
     </row>
     <row r="797" spans="2:3" x14ac:dyDescent="0.2">
@@ -13156,7 +13156,7 @@
         <v>764</v>
       </c>
       <c r="C797">
-        <v>317</v>
+        <v>135</v>
       </c>
     </row>
     <row r="798" spans="2:3" x14ac:dyDescent="0.2">
@@ -13164,7 +13164,7 @@
         <v>765</v>
       </c>
       <c r="C798">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="799" spans="2:3" x14ac:dyDescent="0.2">
@@ -13172,7 +13172,7 @@
         <v>766</v>
       </c>
       <c r="C799">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="800" spans="2:3" x14ac:dyDescent="0.2">
@@ -13180,7 +13180,7 @@
         <v>767</v>
       </c>
       <c r="C800">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="801" spans="2:3" x14ac:dyDescent="0.2">
@@ -13188,7 +13188,7 @@
         <v>768</v>
       </c>
       <c r="C801">
-        <v>191</v>
+        <v>353</v>
       </c>
     </row>
     <row r="802" spans="2:3" x14ac:dyDescent="0.2">
@@ -13196,7 +13196,7 @@
         <v>769</v>
       </c>
       <c r="C802">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="803" spans="2:3" x14ac:dyDescent="0.2">
@@ -13204,7 +13204,7 @@
         <v>770</v>
       </c>
       <c r="C803">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="804" spans="2:3" x14ac:dyDescent="0.2">
@@ -13212,7 +13212,7 @@
         <v>771</v>
       </c>
       <c r="C804">
-        <v>376</v>
+        <v>271</v>
       </c>
     </row>
     <row r="805" spans="2:3" x14ac:dyDescent="0.2">
@@ -13220,7 +13220,7 @@
         <v>772</v>
       </c>
       <c r="C805">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="806" spans="2:3" x14ac:dyDescent="0.2">
@@ -13228,7 +13228,7 @@
         <v>773</v>
       </c>
       <c r="C806">
-        <v>349</v>
+        <v>249</v>
       </c>
     </row>
     <row r="807" spans="2:3" x14ac:dyDescent="0.2">
@@ -13236,7 +13236,7 @@
         <v>774</v>
       </c>
       <c r="C807">
-        <v>376</v>
+        <v>272</v>
       </c>
     </row>
     <row r="808" spans="2:3" x14ac:dyDescent="0.2">
@@ -13244,7 +13244,7 @@
         <v>775</v>
       </c>
       <c r="C808">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="809" spans="2:3" x14ac:dyDescent="0.2">
@@ -13252,7 +13252,7 @@
         <v>776</v>
       </c>
       <c r="C809">
-        <v>325</v>
+        <v>246</v>
       </c>
     </row>
     <row r="810" spans="2:3" x14ac:dyDescent="0.2">
@@ -13260,7 +13260,7 @@
         <v>777</v>
       </c>
       <c r="C810">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="811" spans="2:3" x14ac:dyDescent="0.2">
@@ -13268,7 +13268,7 @@
         <v>778</v>
       </c>
       <c r="C811">
-        <v>392</v>
+        <v>315</v>
       </c>
     </row>
     <row r="812" spans="2:3" x14ac:dyDescent="0.2">
@@ -13276,7 +13276,7 @@
         <v>779</v>
       </c>
       <c r="C812">
-        <v>273</v>
+        <v>382</v>
       </c>
     </row>
     <row r="813" spans="2:3" x14ac:dyDescent="0.2">
@@ -13284,7 +13284,7 @@
         <v>780</v>
       </c>
       <c r="C813">
-        <v>367</v>
+        <v>269</v>
       </c>
     </row>
     <row r="814" spans="2:3" x14ac:dyDescent="0.2">
@@ -13292,7 +13292,7 @@
         <v>781</v>
       </c>
       <c r="C814">
-        <v>389</v>
+        <v>339</v>
       </c>
     </row>
     <row r="815" spans="2:3" x14ac:dyDescent="0.2">
@@ -13300,7 +13300,7 @@
         <v>782</v>
       </c>
       <c r="C815">
-        <v>351</v>
+        <v>393</v>
       </c>
     </row>
     <row r="816" spans="2:3" x14ac:dyDescent="0.2">
@@ -13308,7 +13308,7 @@
         <v>783</v>
       </c>
       <c r="C816">
-        <v>295</v>
+        <v>347</v>
       </c>
     </row>
     <row r="817" spans="2:3" x14ac:dyDescent="0.2">
@@ -13316,7 +13316,7 @@
         <v>784</v>
       </c>
       <c r="C817">
-        <v>322</v>
+        <v>274</v>
       </c>
     </row>
     <row r="818" spans="2:3" x14ac:dyDescent="0.2">
@@ -13324,7 +13324,7 @@
         <v>785</v>
       </c>
       <c r="C818">
-        <v>327</v>
+        <v>279</v>
       </c>
     </row>
     <row r="819" spans="2:3" x14ac:dyDescent="0.2">
@@ -13332,7 +13332,7 @@
         <v>786</v>
       </c>
       <c r="C819">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="820" spans="2:3" x14ac:dyDescent="0.2">
@@ -13340,7 +13340,7 @@
         <v>787</v>
       </c>
       <c r="C820">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="821" spans="2:3" x14ac:dyDescent="0.2">
@@ -13348,7 +13348,7 @@
         <v>788</v>
       </c>
       <c r="C821">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="822" spans="2:3" x14ac:dyDescent="0.2">
@@ -13356,7 +13356,7 @@
         <v>789</v>
       </c>
       <c r="C822">
-        <v>325</v>
+        <v>279</v>
       </c>
     </row>
     <row r="823" spans="2:3" x14ac:dyDescent="0.2">
@@ -13364,7 +13364,7 @@
         <v>790</v>
       </c>
       <c r="C823">
-        <v>260</v>
+        <v>295</v>
       </c>
     </row>
     <row r="824" spans="2:3" x14ac:dyDescent="0.2">
@@ -13372,7 +13372,7 @@
         <v>791</v>
       </c>
       <c r="C824">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="825" spans="2:3" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
         <v>792</v>
       </c>
       <c r="C825">
-        <v>331</v>
+        <v>259</v>
       </c>
     </row>
     <row r="826" spans="2:3" x14ac:dyDescent="0.2">
@@ -13388,7 +13388,7 @@
         <v>793</v>
       </c>
       <c r="C826">
-        <v>304</v>
+        <v>349</v>
       </c>
     </row>
     <row r="827" spans="2:3" x14ac:dyDescent="0.2">
@@ -13396,7 +13396,7 @@
         <v>794</v>
       </c>
       <c r="C827">
-        <v>268</v>
+        <v>199</v>
       </c>
     </row>
     <row r="828" spans="2:3" x14ac:dyDescent="0.2">
@@ -13404,7 +13404,7 @@
         <v>795</v>
       </c>
       <c r="C828">
-        <v>335</v>
+        <v>415</v>
       </c>
     </row>
     <row r="829" spans="2:3" x14ac:dyDescent="0.2">
@@ -13412,7 +13412,7 @@
         <v>796</v>
       </c>
       <c r="C829">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="830" spans="2:3" x14ac:dyDescent="0.2">
@@ -13420,7 +13420,7 @@
         <v>797</v>
       </c>
       <c r="C830">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="831" spans="2:3" x14ac:dyDescent="0.2">
@@ -13428,7 +13428,7 @@
         <v>798</v>
       </c>
       <c r="C831">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="832" spans="2:3" x14ac:dyDescent="0.2">
@@ -13436,7 +13436,7 @@
         <v>799</v>
       </c>
       <c r="C832">
-        <v>476</v>
+        <v>271</v>
       </c>
     </row>
     <row r="833" spans="2:3" x14ac:dyDescent="0.2">
@@ -13444,7 +13444,7 @@
         <v>800</v>
       </c>
       <c r="C833">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="834" spans="2:3" x14ac:dyDescent="0.2">
@@ -13452,7 +13452,7 @@
         <v>801</v>
       </c>
       <c r="C834">
-        <v>308</v>
+        <v>404</v>
       </c>
     </row>
     <row r="835" spans="2:3" x14ac:dyDescent="0.2">
@@ -13460,7 +13460,7 @@
         <v>802</v>
       </c>
       <c r="C835">
-        <v>482</v>
+        <v>297</v>
       </c>
     </row>
     <row r="836" spans="2:3" x14ac:dyDescent="0.2">
@@ -13468,7 +13468,7 @@
         <v>803</v>
       </c>
       <c r="C836">
-        <v>375</v>
+        <v>269</v>
       </c>
     </row>
     <row r="837" spans="2:3" x14ac:dyDescent="0.2">
@@ -13476,7 +13476,7 @@
         <v>804</v>
       </c>
       <c r="C837">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="838" spans="2:3" x14ac:dyDescent="0.2">
@@ -13484,7 +13484,7 @@
         <v>805</v>
       </c>
       <c r="C838">
-        <v>379</v>
+        <v>254</v>
       </c>
     </row>
     <row r="839" spans="2:3" x14ac:dyDescent="0.2">
@@ -13492,7 +13492,7 @@
         <v>806</v>
       </c>
       <c r="C839">
-        <v>282</v>
+        <v>446</v>
       </c>
     </row>
     <row r="840" spans="2:3" x14ac:dyDescent="0.2">
@@ -13500,7 +13500,7 @@
         <v>807</v>
       </c>
       <c r="C840">
-        <v>192</v>
+        <v>358</v>
       </c>
     </row>
     <row r="841" spans="2:3" x14ac:dyDescent="0.2">
@@ -13508,7 +13508,7 @@
         <v>808</v>
       </c>
       <c r="C841">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="842" spans="2:3" x14ac:dyDescent="0.2">
@@ -13516,7 +13516,7 @@
         <v>809</v>
       </c>
       <c r="C842">
-        <v>317</v>
+        <v>262</v>
       </c>
     </row>
     <row r="843" spans="2:3" x14ac:dyDescent="0.2">
@@ -13524,7 +13524,7 @@
         <v>810</v>
       </c>
       <c r="C843">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="844" spans="2:3" x14ac:dyDescent="0.2">
@@ -13532,7 +13532,7 @@
         <v>811</v>
       </c>
       <c r="C844">
-        <v>339</v>
+        <v>282</v>
       </c>
     </row>
     <row r="845" spans="2:3" x14ac:dyDescent="0.2">
@@ -13540,7 +13540,7 @@
         <v>812</v>
       </c>
       <c r="C845">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="846" spans="2:3" x14ac:dyDescent="0.2">
@@ -13548,7 +13548,7 @@
         <v>813</v>
       </c>
       <c r="C846">
-        <v>462</v>
+        <v>170</v>
       </c>
     </row>
     <row r="847" spans="2:3" x14ac:dyDescent="0.2">
@@ -13556,7 +13556,7 @@
         <v>814</v>
       </c>
       <c r="C847">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="848" spans="2:3" x14ac:dyDescent="0.2">
@@ -13564,7 +13564,7 @@
         <v>815</v>
       </c>
       <c r="C848">
-        <v>332</v>
+        <v>242</v>
       </c>
     </row>
     <row r="849" spans="2:3" x14ac:dyDescent="0.2">
@@ -13572,7 +13572,7 @@
         <v>816</v>
       </c>
       <c r="C849">
-        <v>222</v>
+        <v>364</v>
       </c>
     </row>
     <row r="850" spans="2:3" x14ac:dyDescent="0.2">
@@ -13580,7 +13580,7 @@
         <v>817</v>
       </c>
       <c r="C850">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="851" spans="2:3" x14ac:dyDescent="0.2">
@@ -13588,7 +13588,7 @@
         <v>818</v>
       </c>
       <c r="C851">
-        <v>262</v>
+        <v>333</v>
       </c>
     </row>
     <row r="852" spans="2:3" x14ac:dyDescent="0.2">
@@ -13596,7 +13596,7 @@
         <v>819</v>
       </c>
       <c r="C852">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="853" spans="2:3" x14ac:dyDescent="0.2">
@@ -13604,7 +13604,7 @@
         <v>820</v>
       </c>
       <c r="C853">
-        <v>219</v>
+        <v>325</v>
       </c>
     </row>
     <row r="854" spans="2:3" x14ac:dyDescent="0.2">
@@ -13612,7 +13612,7 @@
         <v>821</v>
       </c>
       <c r="C854">
-        <v>263</v>
+        <v>362</v>
       </c>
     </row>
     <row r="855" spans="2:3" x14ac:dyDescent="0.2">
@@ -13620,7 +13620,7 @@
         <v>822</v>
       </c>
       <c r="C855">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="856" spans="2:3" x14ac:dyDescent="0.2">
@@ -13628,7 +13628,7 @@
         <v>823</v>
       </c>
       <c r="C856">
-        <v>359</v>
+        <v>386</v>
       </c>
     </row>
     <row r="857" spans="2:3" x14ac:dyDescent="0.2">
@@ -13636,7 +13636,7 @@
         <v>824</v>
       </c>
       <c r="C857">
-        <v>376</v>
+        <v>281</v>
       </c>
     </row>
     <row r="858" spans="2:3" x14ac:dyDescent="0.2">
@@ -13644,7 +13644,7 @@
         <v>825</v>
       </c>
       <c r="C858">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="859" spans="2:3" x14ac:dyDescent="0.2">
@@ -13652,7 +13652,7 @@
         <v>826</v>
       </c>
       <c r="C859">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="860" spans="2:3" x14ac:dyDescent="0.2">
@@ -13660,7 +13660,7 @@
         <v>827</v>
       </c>
       <c r="C860">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="861" spans="2:3" x14ac:dyDescent="0.2">
@@ -13668,7 +13668,7 @@
         <v>828</v>
       </c>
       <c r="C861">
-        <v>419</v>
+        <v>262</v>
       </c>
     </row>
     <row r="862" spans="2:3" x14ac:dyDescent="0.2">
@@ -13676,7 +13676,7 @@
         <v>829</v>
       </c>
       <c r="C862">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="863" spans="2:3" x14ac:dyDescent="0.2">
@@ -13684,7 +13684,7 @@
         <v>830</v>
       </c>
       <c r="C863">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="864" spans="2:3" x14ac:dyDescent="0.2">
@@ -13692,7 +13692,7 @@
         <v>831</v>
       </c>
       <c r="C864">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="865" spans="2:3" x14ac:dyDescent="0.2">
@@ -13700,7 +13700,7 @@
         <v>832</v>
       </c>
       <c r="C865">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="866" spans="2:3" x14ac:dyDescent="0.2">
@@ -13708,7 +13708,7 @@
         <v>833</v>
       </c>
       <c r="C866">
-        <v>338</v>
+        <v>279</v>
       </c>
     </row>
     <row r="867" spans="2:3" x14ac:dyDescent="0.2">
@@ -13716,7 +13716,7 @@
         <v>834</v>
       </c>
       <c r="C867">
-        <v>195</v>
+        <v>339</v>
       </c>
     </row>
     <row r="868" spans="2:3" x14ac:dyDescent="0.2">
@@ -13724,7 +13724,7 @@
         <v>835</v>
       </c>
       <c r="C868">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="869" spans="2:3" x14ac:dyDescent="0.2">
@@ -13732,7 +13732,7 @@
         <v>836</v>
       </c>
       <c r="C869">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="870" spans="2:3" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
         <v>837</v>
       </c>
       <c r="C870">
-        <v>330</v>
+        <v>232</v>
       </c>
     </row>
     <row r="871" spans="2:3" x14ac:dyDescent="0.2">
@@ -13748,7 +13748,7 @@
         <v>838</v>
       </c>
       <c r="C871">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="872" spans="2:3" x14ac:dyDescent="0.2">
@@ -13756,7 +13756,7 @@
         <v>839</v>
       </c>
       <c r="C872">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="873" spans="2:3" x14ac:dyDescent="0.2">
@@ -13764,7 +13764,7 @@
         <v>840</v>
       </c>
       <c r="C873">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="874" spans="2:3" x14ac:dyDescent="0.2">
@@ -13772,7 +13772,7 @@
         <v>841</v>
       </c>
       <c r="C874">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="875" spans="2:3" x14ac:dyDescent="0.2">
@@ -13780,7 +13780,7 @@
         <v>842</v>
       </c>
       <c r="C875">
-        <v>306</v>
+        <v>362</v>
       </c>
     </row>
     <row r="876" spans="2:3" x14ac:dyDescent="0.2">
@@ -13788,7 +13788,7 @@
         <v>843</v>
       </c>
       <c r="C876">
-        <v>378</v>
+        <v>320</v>
       </c>
     </row>
     <row r="877" spans="2:3" x14ac:dyDescent="0.2">
@@ -13796,7 +13796,7 @@
         <v>844</v>
       </c>
       <c r="C877">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="878" spans="2:3" x14ac:dyDescent="0.2">
@@ -13804,7 +13804,7 @@
         <v>845</v>
       </c>
       <c r="C878">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="879" spans="2:3" x14ac:dyDescent="0.2">
@@ -13812,7 +13812,7 @@
         <v>846</v>
       </c>
       <c r="C879">
-        <v>428</v>
+        <v>351</v>
       </c>
     </row>
     <row r="880" spans="2:3" x14ac:dyDescent="0.2">
@@ -13820,7 +13820,7 @@
         <v>847</v>
       </c>
       <c r="C880">
-        <v>386</v>
+        <v>294</v>
       </c>
     </row>
     <row r="881" spans="2:3" x14ac:dyDescent="0.2">
@@ -13828,7 +13828,7 @@
         <v>848</v>
       </c>
       <c r="C881">
-        <v>339</v>
+        <v>360</v>
       </c>
     </row>
     <row r="882" spans="2:3" x14ac:dyDescent="0.2">
@@ -13836,7 +13836,7 @@
         <v>849</v>
       </c>
       <c r="C882">
-        <v>382</v>
+        <v>254</v>
       </c>
     </row>
     <row r="883" spans="2:3" x14ac:dyDescent="0.2">
@@ -13844,7 +13844,7 @@
         <v>850</v>
       </c>
       <c r="C883">
-        <v>356</v>
+        <v>408</v>
       </c>
     </row>
     <row r="884" spans="2:3" x14ac:dyDescent="0.2">
@@ -13852,7 +13852,7 @@
         <v>851</v>
       </c>
       <c r="C884">
-        <v>356</v>
+        <v>269</v>
       </c>
     </row>
     <row r="885" spans="2:3" x14ac:dyDescent="0.2">
@@ -13860,7 +13860,7 @@
         <v>852</v>
       </c>
       <c r="C885">
-        <v>357</v>
+        <v>236</v>
       </c>
     </row>
     <row r="886" spans="2:3" x14ac:dyDescent="0.2">
@@ -13868,7 +13868,7 @@
         <v>853</v>
       </c>
       <c r="C886">
-        <v>243</v>
+        <v>415</v>
       </c>
     </row>
     <row r="887" spans="2:3" x14ac:dyDescent="0.2">
@@ -13876,7 +13876,7 @@
         <v>854</v>
       </c>
       <c r="C887">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="888" spans="2:3" x14ac:dyDescent="0.2">
@@ -13884,7 +13884,7 @@
         <v>855</v>
       </c>
       <c r="C888">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="889" spans="2:3" x14ac:dyDescent="0.2">
@@ -13892,7 +13892,7 @@
         <v>856</v>
       </c>
       <c r="C889">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="890" spans="2:3" x14ac:dyDescent="0.2">
@@ -13900,7 +13900,7 @@
         <v>857</v>
       </c>
       <c r="C890">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="891" spans="2:3" x14ac:dyDescent="0.2">
@@ -13908,7 +13908,7 @@
         <v>858</v>
       </c>
       <c r="C891">
-        <v>285</v>
+        <v>410</v>
       </c>
     </row>
     <row r="892" spans="2:3" x14ac:dyDescent="0.2">
@@ -13916,7 +13916,7 @@
         <v>859</v>
       </c>
       <c r="C892">
-        <v>392</v>
+        <v>351</v>
       </c>
     </row>
     <row r="893" spans="2:3" x14ac:dyDescent="0.2">
@@ -13924,7 +13924,7 @@
         <v>860</v>
       </c>
       <c r="C893">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="894" spans="2:3" x14ac:dyDescent="0.2">
@@ -13932,7 +13932,7 @@
         <v>861</v>
       </c>
       <c r="C894">
-        <v>310</v>
+        <v>372</v>
       </c>
     </row>
     <row r="895" spans="2:3" x14ac:dyDescent="0.2">
@@ -13940,7 +13940,7 @@
         <v>862</v>
       </c>
       <c r="C895">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="896" spans="2:3" x14ac:dyDescent="0.2">
@@ -13948,7 +13948,7 @@
         <v>863</v>
       </c>
       <c r="C896">
-        <v>355</v>
+        <v>257</v>
       </c>
     </row>
     <row r="897" spans="2:3" x14ac:dyDescent="0.2">
@@ -13956,7 +13956,7 @@
         <v>864</v>
       </c>
       <c r="C897">
-        <v>294</v>
+        <v>346</v>
       </c>
     </row>
     <row r="898" spans="2:3" x14ac:dyDescent="0.2">
@@ -13964,7 +13964,7 @@
         <v>865</v>
       </c>
       <c r="C898">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
     <row r="899" spans="2:3" x14ac:dyDescent="0.2">
@@ -13972,7 +13972,7 @@
         <v>866</v>
       </c>
       <c r="C899">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="900" spans="2:3" x14ac:dyDescent="0.2">
@@ -13980,7 +13980,7 @@
         <v>867</v>
       </c>
       <c r="C900">
-        <v>295</v>
+        <v>249</v>
       </c>
     </row>
     <row r="901" spans="2:3" x14ac:dyDescent="0.2">
@@ -13988,7 +13988,7 @@
         <v>868</v>
       </c>
       <c r="C901">
-        <v>310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="902" spans="2:3" x14ac:dyDescent="0.2">
@@ -13996,7 +13996,7 @@
         <v>869</v>
       </c>
       <c r="C902">
-        <v>314</v>
+        <v>224</v>
       </c>
     </row>
     <row r="903" spans="2:3" x14ac:dyDescent="0.2">
@@ -14004,7 +14004,7 @@
         <v>870</v>
       </c>
       <c r="C903">
-        <v>268</v>
+        <v>341</v>
       </c>
     </row>
     <row r="904" spans="2:3" x14ac:dyDescent="0.2">
@@ -14012,7 +14012,7 @@
         <v>871</v>
       </c>
       <c r="C904">
-        <v>267</v>
+        <v>387</v>
       </c>
     </row>
     <row r="905" spans="2:3" x14ac:dyDescent="0.2">
@@ -14020,7 +14020,7 @@
         <v>872</v>
       </c>
       <c r="C905">
-        <v>264</v>
+        <v>438</v>
       </c>
     </row>
     <row r="906" spans="2:3" x14ac:dyDescent="0.2">
@@ -14028,7 +14028,7 @@
         <v>873</v>
       </c>
       <c r="C906">
-        <v>312</v>
+        <v>249</v>
       </c>
     </row>
     <row r="907" spans="2:3" x14ac:dyDescent="0.2">
@@ -14036,7 +14036,7 @@
         <v>874</v>
       </c>
       <c r="C907">
-        <v>386</v>
+        <v>274</v>
       </c>
     </row>
     <row r="908" spans="2:3" x14ac:dyDescent="0.2">
@@ -14044,7 +14044,7 @@
         <v>875</v>
       </c>
       <c r="C908">
-        <v>412</v>
+        <v>342</v>
       </c>
     </row>
     <row r="909" spans="2:3" x14ac:dyDescent="0.2">
@@ -14052,7 +14052,7 @@
         <v>876</v>
       </c>
       <c r="C909">
-        <v>417</v>
+        <v>222</v>
       </c>
     </row>
     <row r="910" spans="2:3" x14ac:dyDescent="0.2">
@@ -14060,7 +14060,7 @@
         <v>877</v>
       </c>
       <c r="C910">
-        <v>280</v>
+        <v>351</v>
       </c>
     </row>
     <row r="911" spans="2:3" x14ac:dyDescent="0.2">
@@ -14068,7 +14068,7 @@
         <v>878</v>
       </c>
       <c r="C911">
-        <v>317</v>
+        <v>187</v>
       </c>
     </row>
     <row r="912" spans="2:3" x14ac:dyDescent="0.2">
@@ -14076,7 +14076,7 @@
         <v>879</v>
       </c>
       <c r="C912">
-        <v>215</v>
+        <v>348</v>
       </c>
     </row>
     <row r="913" spans="2:3" x14ac:dyDescent="0.2">
@@ -14084,7 +14084,7 @@
         <v>880</v>
       </c>
       <c r="C913">
-        <v>371</v>
+        <v>207</v>
       </c>
     </row>
     <row r="914" spans="2:3" x14ac:dyDescent="0.2">
@@ -14092,7 +14092,7 @@
         <v>881</v>
       </c>
       <c r="C914">
-        <v>347</v>
+        <v>266</v>
       </c>
     </row>
     <row r="915" spans="2:3" x14ac:dyDescent="0.2">
@@ -14100,7 +14100,7 @@
         <v>882</v>
       </c>
       <c r="C915">
-        <v>403</v>
+        <v>368</v>
       </c>
     </row>
     <row r="916" spans="2:3" x14ac:dyDescent="0.2">
@@ -14108,7 +14108,7 @@
         <v>883</v>
       </c>
       <c r="C916">
-        <v>290</v>
+        <v>357</v>
       </c>
     </row>
     <row r="917" spans="2:3" x14ac:dyDescent="0.2">
@@ -14116,7 +14116,7 @@
         <v>884</v>
       </c>
       <c r="C917">
-        <v>266</v>
+        <v>359</v>
       </c>
     </row>
     <row r="918" spans="2:3" x14ac:dyDescent="0.2">
@@ -14124,7 +14124,7 @@
         <v>885</v>
       </c>
       <c r="C918">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="919" spans="2:3" x14ac:dyDescent="0.2">
@@ -14132,7 +14132,7 @@
         <v>886</v>
       </c>
       <c r="C919">
-        <v>429</v>
+        <v>243</v>
       </c>
     </row>
     <row r="920" spans="2:3" x14ac:dyDescent="0.2">
@@ -14140,7 +14140,7 @@
         <v>887</v>
       </c>
       <c r="C920">
-        <v>258</v>
+        <v>319</v>
       </c>
     </row>
     <row r="921" spans="2:3" x14ac:dyDescent="0.2">
@@ -14148,7 +14148,7 @@
         <v>888</v>
       </c>
       <c r="C921">
-        <v>394</v>
+        <v>343</v>
       </c>
     </row>
     <row r="922" spans="2:3" x14ac:dyDescent="0.2">
@@ -14156,7 +14156,7 @@
         <v>889</v>
       </c>
       <c r="C922">
-        <v>350</v>
+        <v>233</v>
       </c>
     </row>
     <row r="923" spans="2:3" x14ac:dyDescent="0.2">
@@ -14164,7 +14164,7 @@
         <v>890</v>
       </c>
       <c r="C923">
-        <v>324</v>
+        <v>414</v>
       </c>
     </row>
     <row r="924" spans="2:3" x14ac:dyDescent="0.2">
@@ -14172,7 +14172,7 @@
         <v>891</v>
       </c>
       <c r="C924">
-        <v>300</v>
+        <v>389</v>
       </c>
     </row>
     <row r="925" spans="2:3" x14ac:dyDescent="0.2">
@@ -14180,7 +14180,7 @@
         <v>892</v>
       </c>
       <c r="C925">
-        <v>396</v>
+        <v>265</v>
       </c>
     </row>
     <row r="926" spans="2:3" x14ac:dyDescent="0.2">
@@ -14188,7 +14188,7 @@
         <v>893</v>
       </c>
       <c r="C926">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="927" spans="2:3" x14ac:dyDescent="0.2">
@@ -14196,7 +14196,7 @@
         <v>894</v>
       </c>
       <c r="C927">
-        <v>410</v>
+        <v>381</v>
       </c>
     </row>
     <row r="928" spans="2:3" x14ac:dyDescent="0.2">
@@ -14204,7 +14204,7 @@
         <v>895</v>
       </c>
       <c r="C928">
-        <v>290</v>
+        <v>356</v>
       </c>
     </row>
     <row r="929" spans="2:3" x14ac:dyDescent="0.2">
@@ -14212,7 +14212,7 @@
         <v>896</v>
       </c>
       <c r="C929">
-        <v>421</v>
+        <v>367</v>
       </c>
     </row>
     <row r="930" spans="2:3" x14ac:dyDescent="0.2">
@@ -14220,7 +14220,7 @@
         <v>897</v>
       </c>
       <c r="C930">
-        <v>396</v>
+        <v>254</v>
       </c>
     </row>
     <row r="931" spans="2:3" x14ac:dyDescent="0.2">
@@ -14228,7 +14228,7 @@
         <v>898</v>
       </c>
       <c r="C931">
-        <v>324</v>
+        <v>379</v>
       </c>
     </row>
     <row r="932" spans="2:3" x14ac:dyDescent="0.2">
@@ -14236,7 +14236,7 @@
         <v>899</v>
       </c>
       <c r="C932">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="933" spans="2:3" x14ac:dyDescent="0.2">
@@ -14244,7 +14244,7 @@
         <v>900</v>
       </c>
       <c r="C933">
-        <v>407</v>
+        <v>328</v>
       </c>
     </row>
     <row r="934" spans="2:3" x14ac:dyDescent="0.2">
@@ -14252,7 +14252,7 @@
         <v>901</v>
       </c>
       <c r="C934">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="935" spans="2:3" x14ac:dyDescent="0.2">
@@ -14260,7 +14260,7 @@
         <v>902</v>
       </c>
       <c r="C935">
-        <v>338</v>
+        <v>235</v>
       </c>
     </row>
     <row r="936" spans="2:3" x14ac:dyDescent="0.2">
@@ -14268,7 +14268,7 @@
         <v>903</v>
       </c>
       <c r="C936">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="937" spans="2:3" x14ac:dyDescent="0.2">
@@ -14276,7 +14276,7 @@
         <v>904</v>
       </c>
       <c r="C937">
-        <v>241</v>
+        <v>335</v>
       </c>
     </row>
     <row r="938" spans="2:3" x14ac:dyDescent="0.2">
@@ -14284,7 +14284,7 @@
         <v>905</v>
       </c>
       <c r="C938">
-        <v>261</v>
+        <v>347</v>
       </c>
     </row>
     <row r="939" spans="2:3" x14ac:dyDescent="0.2">
@@ -14292,7 +14292,7 @@
         <v>906</v>
       </c>
       <c r="C939">
-        <v>339</v>
+        <v>373</v>
       </c>
     </row>
     <row r="940" spans="2:3" x14ac:dyDescent="0.2">
@@ -14300,7 +14300,7 @@
         <v>907</v>
       </c>
       <c r="C940">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="941" spans="2:3" x14ac:dyDescent="0.2">
@@ -14308,7 +14308,7 @@
         <v>908</v>
       </c>
       <c r="C941">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="942" spans="2:3" x14ac:dyDescent="0.2">
@@ -14316,7 +14316,7 @@
         <v>909</v>
       </c>
       <c r="C942">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="943" spans="2:3" x14ac:dyDescent="0.2">
@@ -14324,7 +14324,7 @@
         <v>910</v>
       </c>
       <c r="C943">
-        <v>458</v>
+        <v>394</v>
       </c>
     </row>
     <row r="944" spans="2:3" x14ac:dyDescent="0.2">
@@ -14332,7 +14332,7 @@
         <v>911</v>
       </c>
       <c r="C944">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="945" spans="2:3" x14ac:dyDescent="0.2">
@@ -14340,7 +14340,7 @@
         <v>912</v>
       </c>
       <c r="C945">
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
     <row r="946" spans="2:3" x14ac:dyDescent="0.2">
@@ -14348,7 +14348,7 @@
         <v>913</v>
       </c>
       <c r="C946">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="947" spans="2:3" x14ac:dyDescent="0.2">
@@ -14356,7 +14356,7 @@
         <v>914</v>
       </c>
       <c r="C947">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="948" spans="2:3" x14ac:dyDescent="0.2">
@@ -14364,7 +14364,7 @@
         <v>915</v>
       </c>
       <c r="C948">
-        <v>390</v>
+        <v>337</v>
       </c>
     </row>
     <row r="949" spans="2:3" x14ac:dyDescent="0.2">
@@ -14372,7 +14372,7 @@
         <v>916</v>
       </c>
       <c r="C949">
-        <v>336</v>
+        <v>252</v>
       </c>
     </row>
     <row r="950" spans="2:3" x14ac:dyDescent="0.2">
@@ -14380,7 +14380,7 @@
         <v>917</v>
       </c>
       <c r="C950">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="951" spans="2:3" x14ac:dyDescent="0.2">
@@ -14388,7 +14388,7 @@
         <v>918</v>
       </c>
       <c r="C951">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="952" spans="2:3" x14ac:dyDescent="0.2">
@@ -14396,7 +14396,7 @@
         <v>919</v>
       </c>
       <c r="C952">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="953" spans="2:3" x14ac:dyDescent="0.2">
@@ -14404,7 +14404,7 @@
         <v>920</v>
       </c>
       <c r="C953">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="954" spans="2:3" x14ac:dyDescent="0.2">
@@ -14412,7 +14412,7 @@
         <v>921</v>
       </c>
       <c r="C954">
-        <v>383</v>
+        <v>246</v>
       </c>
     </row>
     <row r="955" spans="2:3" x14ac:dyDescent="0.2">
@@ -14420,7 +14420,7 @@
         <v>922</v>
       </c>
       <c r="C955">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="956" spans="2:3" x14ac:dyDescent="0.2">
@@ -14428,7 +14428,7 @@
         <v>923</v>
       </c>
       <c r="C956">
-        <v>310</v>
+        <v>273</v>
       </c>
     </row>
     <row r="957" spans="2:3" x14ac:dyDescent="0.2">
@@ -14436,7 +14436,7 @@
         <v>924</v>
       </c>
       <c r="C957">
-        <v>273</v>
+        <v>318</v>
       </c>
     </row>
     <row r="958" spans="2:3" x14ac:dyDescent="0.2">
@@ -14444,7 +14444,7 @@
         <v>925</v>
       </c>
       <c r="C958">
-        <v>368</v>
+        <v>298</v>
       </c>
     </row>
     <row r="959" spans="2:3" x14ac:dyDescent="0.2">
@@ -14452,7 +14452,7 @@
         <v>926</v>
       </c>
       <c r="C959">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="960" spans="2:3" x14ac:dyDescent="0.2">
@@ -14460,7 +14460,7 @@
         <v>927</v>
       </c>
       <c r="C960">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="961" spans="2:3" x14ac:dyDescent="0.2">
@@ -14468,7 +14468,7 @@
         <v>928</v>
       </c>
       <c r="C961">
-        <v>432</v>
+        <v>294</v>
       </c>
     </row>
     <row r="962" spans="2:3" x14ac:dyDescent="0.2">
@@ -14476,7 +14476,7 @@
         <v>929</v>
       </c>
       <c r="C962">
-        <v>281</v>
+        <v>397</v>
       </c>
     </row>
     <row r="963" spans="2:3" x14ac:dyDescent="0.2">
@@ -14484,7 +14484,7 @@
         <v>930</v>
       </c>
       <c r="C963">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="964" spans="2:3" x14ac:dyDescent="0.2">
@@ -14492,7 +14492,7 @@
         <v>931</v>
       </c>
       <c r="C964">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="965" spans="2:3" x14ac:dyDescent="0.2">
@@ -14500,7 +14500,7 @@
         <v>932</v>
       </c>
       <c r="C965">
-        <v>286</v>
+        <v>413</v>
       </c>
     </row>
     <row r="966" spans="2:3" x14ac:dyDescent="0.2">
@@ -14508,7 +14508,7 @@
         <v>933</v>
       </c>
       <c r="C966">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="967" spans="2:3" x14ac:dyDescent="0.2">
@@ -14516,7 +14516,7 @@
         <v>934</v>
       </c>
       <c r="C967">
-        <v>382</v>
+        <v>268</v>
       </c>
     </row>
     <row r="968" spans="2:3" x14ac:dyDescent="0.2">
@@ -14524,7 +14524,7 @@
         <v>935</v>
       </c>
       <c r="C968">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="969" spans="2:3" x14ac:dyDescent="0.2">
@@ -14532,7 +14532,7 @@
         <v>936</v>
       </c>
       <c r="C969">
-        <v>277</v>
+        <v>402</v>
       </c>
     </row>
     <row r="970" spans="2:3" x14ac:dyDescent="0.2">
@@ -14540,7 +14540,7 @@
         <v>937</v>
       </c>
       <c r="C970">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="971" spans="2:3" x14ac:dyDescent="0.2">
@@ -14548,7 +14548,7 @@
         <v>938</v>
       </c>
       <c r="C971">
-        <v>262</v>
+        <v>380</v>
       </c>
     </row>
     <row r="972" spans="2:3" x14ac:dyDescent="0.2">
@@ -14556,7 +14556,7 @@
         <v>939</v>
       </c>
       <c r="C972">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="973" spans="2:3" x14ac:dyDescent="0.2">
@@ -14564,7 +14564,7 @@
         <v>940</v>
       </c>
       <c r="C973">
-        <v>241</v>
+        <v>296</v>
       </c>
     </row>
     <row r="974" spans="2:3" x14ac:dyDescent="0.2">
@@ -14572,7 +14572,7 @@
         <v>941</v>
       </c>
       <c r="C974">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="975" spans="2:3" x14ac:dyDescent="0.2">
@@ -14580,7 +14580,7 @@
         <v>942</v>
       </c>
       <c r="C975">
-        <v>443</v>
+        <v>374</v>
       </c>
     </row>
     <row r="976" spans="2:3" x14ac:dyDescent="0.2">
@@ -14588,7 +14588,7 @@
         <v>943</v>
       </c>
       <c r="C976">
-        <v>227</v>
+        <v>362</v>
       </c>
     </row>
     <row r="977" spans="2:3" x14ac:dyDescent="0.2">
@@ -14596,7 +14596,7 @@
         <v>944</v>
       </c>
       <c r="C977">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="978" spans="2:3" x14ac:dyDescent="0.2">
@@ -14604,7 +14604,7 @@
         <v>945</v>
       </c>
       <c r="C978">
-        <v>241</v>
+        <v>302</v>
       </c>
     </row>
     <row r="979" spans="2:3" x14ac:dyDescent="0.2">
@@ -14612,7 +14612,7 @@
         <v>946</v>
       </c>
       <c r="C979">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="980" spans="2:3" x14ac:dyDescent="0.2">
@@ -14620,7 +14620,7 @@
         <v>947</v>
       </c>
       <c r="C980">
-        <v>217</v>
+        <v>401</v>
       </c>
     </row>
     <row r="981" spans="2:3" x14ac:dyDescent="0.2">
@@ -14628,7 +14628,7 @@
         <v>948</v>
       </c>
       <c r="C981">
-        <v>403</v>
+        <v>244</v>
       </c>
     </row>
     <row r="982" spans="2:3" x14ac:dyDescent="0.2">
@@ -14636,7 +14636,7 @@
         <v>949</v>
       </c>
       <c r="C982">
-        <v>204</v>
+        <v>292</v>
       </c>
     </row>
     <row r="983" spans="2:3" x14ac:dyDescent="0.2">
@@ -14644,7 +14644,7 @@
         <v>950</v>
       </c>
       <c r="C983">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="984" spans="2:3" x14ac:dyDescent="0.2">
@@ -14652,7 +14652,7 @@
         <v>951</v>
       </c>
       <c r="C984">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="985" spans="2:3" x14ac:dyDescent="0.2">
@@ -14660,7 +14660,7 @@
         <v>952</v>
       </c>
       <c r="C985">
-        <v>473</v>
+        <v>329</v>
       </c>
     </row>
     <row r="986" spans="2:3" x14ac:dyDescent="0.2">
@@ -14668,7 +14668,7 @@
         <v>953</v>
       </c>
       <c r="C986">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="987" spans="2:3" x14ac:dyDescent="0.2">
@@ -14676,7 +14676,7 @@
         <v>954</v>
       </c>
       <c r="C987">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="988" spans="2:3" x14ac:dyDescent="0.2">
@@ -14684,7 +14684,7 @@
         <v>955</v>
       </c>
       <c r="C988">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="989" spans="2:3" x14ac:dyDescent="0.2">
@@ -14692,7 +14692,7 @@
         <v>956</v>
       </c>
       <c r="C989">
-        <v>362</v>
+        <v>310</v>
       </c>
     </row>
     <row r="990" spans="2:3" x14ac:dyDescent="0.2">
@@ -14700,7 +14700,7 @@
         <v>957</v>
       </c>
       <c r="C990">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="991" spans="2:3" x14ac:dyDescent="0.2">
@@ -14708,7 +14708,7 @@
         <v>958</v>
       </c>
       <c r="C991">
-        <v>328</v>
+        <v>407</v>
       </c>
     </row>
     <row r="992" spans="2:3" x14ac:dyDescent="0.2">
@@ -14716,7 +14716,7 @@
         <v>959</v>
       </c>
       <c r="C992">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="993" spans="2:3" x14ac:dyDescent="0.2">
@@ -14724,7 +14724,7 @@
         <v>960</v>
       </c>
       <c r="C993">
-        <v>328</v>
+        <v>436</v>
       </c>
     </row>
     <row r="994" spans="2:3" x14ac:dyDescent="0.2">
@@ -14732,7 +14732,7 @@
         <v>961</v>
       </c>
       <c r="C994">
-        <v>308</v>
+        <v>436</v>
       </c>
     </row>
     <row r="995" spans="2:3" x14ac:dyDescent="0.2">
@@ -14740,7 +14740,7 @@
         <v>962</v>
       </c>
       <c r="C995">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="996" spans="2:3" x14ac:dyDescent="0.2">
@@ -14748,7 +14748,7 @@
         <v>963</v>
       </c>
       <c r="C996">
-        <v>458</v>
+        <v>313</v>
       </c>
     </row>
     <row r="997" spans="2:3" x14ac:dyDescent="0.2">
@@ -14756,7 +14756,7 @@
         <v>964</v>
       </c>
       <c r="C997">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="998" spans="2:3" x14ac:dyDescent="0.2">
@@ -14764,7 +14764,7 @@
         <v>965</v>
       </c>
       <c r="C998">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="999" spans="2:3" x14ac:dyDescent="0.2">
@@ -14772,7 +14772,7 @@
         <v>966</v>
       </c>
       <c r="C999">
-        <v>436</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1000" spans="2:3" x14ac:dyDescent="0.2">
@@ -14780,7 +14780,7 @@
         <v>967</v>
       </c>
       <c r="C1000">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="1001" spans="2:3" x14ac:dyDescent="0.2">
@@ -14788,7 +14788,7 @@
         <v>968</v>
       </c>
       <c r="C1001">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1002" spans="2:3" x14ac:dyDescent="0.2">
@@ -14796,7 +14796,7 @@
         <v>969</v>
       </c>
       <c r="C1002">
-        <v>376</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1003" spans="2:3" x14ac:dyDescent="0.2">
@@ -14804,7 +14804,7 @@
         <v>970</v>
       </c>
       <c r="C1003">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1004" spans="2:3" x14ac:dyDescent="0.2">
@@ -14812,7 +14812,7 @@
         <v>971</v>
       </c>
       <c r="C1004">
-        <v>236</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1005" spans="2:3" x14ac:dyDescent="0.2">
@@ -14820,7 +14820,7 @@
         <v>972</v>
       </c>
       <c r="C1005">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1006" spans="2:3" x14ac:dyDescent="0.2">
@@ -14828,7 +14828,7 @@
         <v>973</v>
       </c>
       <c r="C1006">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1007" spans="2:3" x14ac:dyDescent="0.2">
@@ -14836,7 +14836,7 @@
         <v>974</v>
       </c>
       <c r="C1007">
-        <v>417</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1008" spans="2:3" x14ac:dyDescent="0.2">
@@ -14844,7 +14844,7 @@
         <v>975</v>
       </c>
       <c r="C1008">
-        <v>148</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1009" spans="2:3" x14ac:dyDescent="0.2">
@@ -14852,7 +14852,7 @@
         <v>976</v>
       </c>
       <c r="C1009">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1010" spans="2:3" x14ac:dyDescent="0.2">
@@ -14860,7 +14860,7 @@
         <v>977</v>
       </c>
       <c r="C1010">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1011" spans="2:3" x14ac:dyDescent="0.2">
@@ -14868,7 +14868,7 @@
         <v>978</v>
       </c>
       <c r="C1011">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1012" spans="2:3" x14ac:dyDescent="0.2">
@@ -14876,7 +14876,7 @@
         <v>979</v>
       </c>
       <c r="C1012">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1013" spans="2:3" x14ac:dyDescent="0.2">
@@ -14884,7 +14884,7 @@
         <v>980</v>
       </c>
       <c r="C1013">
-        <v>426</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1014" spans="2:3" x14ac:dyDescent="0.2">
@@ -14892,7 +14892,7 @@
         <v>981</v>
       </c>
       <c r="C1014">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1015" spans="2:3" x14ac:dyDescent="0.2">
@@ -14900,7 +14900,7 @@
         <v>982</v>
       </c>
       <c r="C1015">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1016" spans="2:3" x14ac:dyDescent="0.2">
@@ -14908,7 +14908,7 @@
         <v>983</v>
       </c>
       <c r="C1016">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1017" spans="2:3" x14ac:dyDescent="0.2">
@@ -14916,7 +14916,7 @@
         <v>984</v>
       </c>
       <c r="C1017">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1018" spans="2:3" x14ac:dyDescent="0.2">
@@ -14924,7 +14924,7 @@
         <v>985</v>
       </c>
       <c r="C1018">
-        <v>251</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1019" spans="2:3" x14ac:dyDescent="0.2">
@@ -14932,7 +14932,7 @@
         <v>986</v>
       </c>
       <c r="C1019">
-        <v>265</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1020" spans="2:3" x14ac:dyDescent="0.2">
@@ -14940,7 +14940,7 @@
         <v>987</v>
       </c>
       <c r="C1020">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1021" spans="2:3" x14ac:dyDescent="0.2">
@@ -14948,7 +14948,7 @@
         <v>988</v>
       </c>
       <c r="C1021">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1022" spans="2:3" x14ac:dyDescent="0.2">
@@ -14956,7 +14956,7 @@
         <v>989</v>
       </c>
       <c r="C1022">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="1023" spans="2:3" x14ac:dyDescent="0.2">
@@ -14964,7 +14964,7 @@
         <v>990</v>
       </c>
       <c r="C1023">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1024" spans="2:3" x14ac:dyDescent="0.2">
@@ -14972,7 +14972,7 @@
         <v>991</v>
       </c>
       <c r="C1024">
-        <v>179</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1025" spans="2:3" x14ac:dyDescent="0.2">
@@ -14980,7 +14980,7 @@
         <v>992</v>
       </c>
       <c r="C1025">
-        <v>203</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1026" spans="2:3" x14ac:dyDescent="0.2">
@@ -14988,7 +14988,7 @@
         <v>993</v>
       </c>
       <c r="C1026">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1027" spans="2:3" x14ac:dyDescent="0.2">
@@ -14996,7 +14996,7 @@
         <v>994</v>
       </c>
       <c r="C1027">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1028" spans="2:3" x14ac:dyDescent="0.2">
@@ -15004,7 +15004,7 @@
         <v>995</v>
       </c>
       <c r="C1028">
-        <v>242</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1029" spans="2:3" x14ac:dyDescent="0.2">
@@ -15012,7 +15012,7 @@
         <v>996</v>
       </c>
       <c r="C1029">
-        <v>304</v>
+        <v>350</v>
       </c>
     </row>
     <row r="1030" spans="2:3" x14ac:dyDescent="0.2">
@@ -15020,7 +15020,7 @@
         <v>997</v>
       </c>
       <c r="C1030">
-        <v>169</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1031" spans="2:3" x14ac:dyDescent="0.2">
@@ -15028,7 +15028,7 @@
         <v>998</v>
       </c>
       <c r="C1031">
-        <v>358</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1032" spans="2:3" x14ac:dyDescent="0.2">
@@ -15036,7 +15036,7 @@
         <v>999</v>
       </c>
       <c r="C1032">
-        <v>316</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1033" spans="2:3" x14ac:dyDescent="0.2">
@@ -15044,7 +15044,7 @@
         <v>1000</v>
       </c>
       <c r="C1033">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="1034" spans="2:3" x14ac:dyDescent="0.2">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="C1034">
         <f ca="1">SUM(C34:C1033)</f>
-        <v>314184</v>
+        <v>315053</v>
       </c>
     </row>
     <row r="1035" spans="2:3" x14ac:dyDescent="0.2">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="C1035">
         <f ca="1">SUM(C34:C1034)</f>
-        <v>628368</v>
+        <v>630106</v>
       </c>
     </row>
   </sheetData>
